--- a/conformancelib/testdata/PIV-I-GSA_MSO_Cards.xlsx
+++ b/conformancelib/testdata/PIV-I-GSA_MSO_Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\bf7450\git\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212FE8B2-FFC2-478B-951A-33555E6F089D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F431A46B-B22B-4137-B769-1F8C871CD7AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps Overview" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2977" uniqueCount="1269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2977" uniqueCount="1268">
   <si>
     <t>Document</t>
   </si>
@@ -2073,9 +2073,6 @@
   </si>
   <si>
     <t>11.1.2.5</t>
-  </si>
-  <si>
-    <t>Sign arbitrary data using the specified key container and confirm that the certificate can validate it</t>
   </si>
   <si>
     <t>PKIX.11</t>
@@ -5613,7 +5610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV473"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A354" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A354" workbookViewId="0">
       <selection activeCell="C356" sqref="C356"/>
     </sheetView>
   </sheetViews>
@@ -11756,10 +11753,10 @@
         <v>681</v>
       </c>
       <c r="C356" s="8" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D356" s="9" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E356" s="8"/>
       <c r="F356" s="8" t="s">
@@ -11771,10 +11768,10 @@
         <v>6</v>
       </c>
       <c r="B357" s="8" t="s">
+        <v>683</v>
+      </c>
+      <c r="C357" s="11" t="s">
         <v>684</v>
-      </c>
-      <c r="C357" s="11" t="s">
-        <v>685</v>
       </c>
       <c r="D357" s="12"/>
       <c r="E357" s="11"/>
@@ -11785,13 +11782,13 @@
         <v>6</v>
       </c>
       <c r="B358" s="8" t="s">
+        <v>685</v>
+      </c>
+      <c r="C358" s="8" t="s">
         <v>686</v>
       </c>
-      <c r="C358" s="8" t="s">
+      <c r="D358" s="9" t="s">
         <v>687</v>
-      </c>
-      <c r="D358" s="9" t="s">
-        <v>688</v>
       </c>
       <c r="E358" s="8"/>
       <c r="F358" s="8" t="s">
@@ -11803,13 +11800,13 @@
         <v>6</v>
       </c>
       <c r="B359" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="C359" s="8" t="s">
         <v>689</v>
       </c>
-      <c r="C359" s="8" t="s">
+      <c r="D359" s="9" t="s">
         <v>690</v>
-      </c>
-      <c r="D359" s="9" t="s">
-        <v>691</v>
       </c>
       <c r="E359" s="8"/>
       <c r="F359" s="8" t="s">
@@ -11821,13 +11818,13 @@
         <v>6</v>
       </c>
       <c r="B360" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="C360" s="8" t="s">
         <v>692</v>
       </c>
-      <c r="C360" s="8" t="s">
+      <c r="D360" s="9" t="s">
         <v>693</v>
-      </c>
-      <c r="D360" s="9" t="s">
-        <v>694</v>
       </c>
       <c r="E360" s="8"/>
       <c r="F360" s="8" t="s">
@@ -11839,10 +11836,10 @@
         <v>6</v>
       </c>
       <c r="B361" s="8" t="s">
+        <v>694</v>
+      </c>
+      <c r="C361" s="11" t="s">
         <v>695</v>
-      </c>
-      <c r="C361" s="11" t="s">
-        <v>696</v>
       </c>
       <c r="D361" s="12"/>
       <c r="E361" s="11"/>
@@ -11853,13 +11850,13 @@
         <v>6</v>
       </c>
       <c r="B362" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="C362" s="8" t="s">
         <v>697</v>
       </c>
-      <c r="C362" s="8" t="s">
+      <c r="D362" s="9" t="s">
         <v>698</v>
-      </c>
-      <c r="D362" s="9" t="s">
-        <v>699</v>
       </c>
       <c r="E362" s="8"/>
       <c r="F362" s="8" t="s">
@@ -11871,13 +11868,13 @@
         <v>6</v>
       </c>
       <c r="B363" s="8" t="s">
+        <v>699</v>
+      </c>
+      <c r="C363" s="8" t="s">
         <v>700</v>
       </c>
-      <c r="C363" s="8" t="s">
+      <c r="D363" s="9" t="s">
         <v>701</v>
-      </c>
-      <c r="D363" s="9" t="s">
-        <v>702</v>
       </c>
       <c r="E363" s="8"/>
       <c r="F363" s="8" t="s">
@@ -11889,10 +11886,10 @@
         <v>6</v>
       </c>
       <c r="B364" s="8" t="s">
+        <v>702</v>
+      </c>
+      <c r="C364" s="11" t="s">
         <v>703</v>
-      </c>
-      <c r="C364" s="11" t="s">
-        <v>704</v>
       </c>
       <c r="D364" s="12"/>
       <c r="E364" s="11"/>
@@ -11903,7 +11900,7 @@
         <v>6</v>
       </c>
       <c r="B365" s="8" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C365" s="8" t="s">
         <v>673</v>
@@ -11921,13 +11918,13 @@
         <v>6</v>
       </c>
       <c r="B366" s="8" t="s">
+        <v>705</v>
+      </c>
+      <c r="C366" s="8" t="s">
         <v>706</v>
       </c>
-      <c r="C366" s="8" t="s">
+      <c r="D366" s="9" t="s">
         <v>707</v>
-      </c>
-      <c r="D366" s="9" t="s">
-        <v>708</v>
       </c>
       <c r="E366" s="18"/>
       <c r="F366" s="8" t="s">
@@ -11939,13 +11936,13 @@
         <v>6</v>
       </c>
       <c r="B367" s="8" t="s">
+        <v>708</v>
+      </c>
+      <c r="C367" s="8" t="s">
         <v>709</v>
       </c>
-      <c r="C367" s="8" t="s">
-        <v>710</v>
-      </c>
       <c r="D367" s="9" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E367" s="8"/>
       <c r="F367" s="8" t="s">
@@ -11957,10 +11954,10 @@
         <v>6</v>
       </c>
       <c r="B368" s="8" t="s">
+        <v>710</v>
+      </c>
+      <c r="C368" s="8" t="s">
         <v>711</v>
-      </c>
-      <c r="C368" s="8" t="s">
-        <v>712</v>
       </c>
       <c r="D368" s="9" t="s">
         <v>680</v>
@@ -11975,13 +11972,13 @@
         <v>6</v>
       </c>
       <c r="B369" s="8" t="s">
+        <v>712</v>
+      </c>
+      <c r="C369" s="8" t="s">
         <v>713</v>
       </c>
-      <c r="C369" s="8" t="s">
+      <c r="D369" s="9" t="s">
         <v>714</v>
-      </c>
-      <c r="D369" s="9" t="s">
-        <v>715</v>
       </c>
       <c r="E369" s="8"/>
       <c r="F369" s="8" t="s">
@@ -11993,10 +11990,10 @@
         <v>6</v>
       </c>
       <c r="B370" s="8" t="s">
+        <v>715</v>
+      </c>
+      <c r="C370" s="7" t="s">
         <v>716</v>
-      </c>
-      <c r="C370" s="7" t="s">
-        <v>717</v>
       </c>
       <c r="D370" s="12"/>
       <c r="E370" s="11"/>
@@ -12007,7 +12004,7 @@
         <v>6</v>
       </c>
       <c r="B371" s="8" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C371" s="11" t="s">
         <v>649</v>
@@ -12021,7 +12018,7 @@
         <v>6</v>
       </c>
       <c r="B372" s="8" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C372" s="8" t="s">
         <v>651</v>
@@ -12039,10 +12036,10 @@
         <v>6</v>
       </c>
       <c r="B373" s="8" t="s">
+        <v>719</v>
+      </c>
+      <c r="C373" s="8" t="s">
         <v>720</v>
-      </c>
-      <c r="C373" s="8" t="s">
-        <v>721</v>
       </c>
       <c r="D373" s="10">
         <v>78.099999999999994</v>
@@ -12057,10 +12054,10 @@
         <v>6</v>
       </c>
       <c r="B374" s="8" t="s">
+        <v>721</v>
+      </c>
+      <c r="C374" s="8" t="s">
         <v>722</v>
-      </c>
-      <c r="C374" s="8" t="s">
-        <v>723</v>
       </c>
       <c r="D374" s="10">
         <v>78.099999999999994</v>
@@ -12075,7 +12072,7 @@
         <v>6</v>
       </c>
       <c r="B375" s="8" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C375" s="11" t="s">
         <v>657</v>
@@ -12089,10 +12086,10 @@
         <v>6</v>
       </c>
       <c r="B376" s="8" t="s">
+        <v>724</v>
+      </c>
+      <c r="C376" s="11" t="s">
         <v>725</v>
-      </c>
-      <c r="C376" s="11" t="s">
-        <v>726</v>
       </c>
       <c r="D376" s="12"/>
       <c r="E376" s="11"/>
@@ -12103,13 +12100,13 @@
         <v>6</v>
       </c>
       <c r="B377" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="C377" s="8" t="s">
         <v>727</v>
       </c>
-      <c r="C377" s="8" t="s">
+      <c r="D377" s="9" t="s">
         <v>728</v>
-      </c>
-      <c r="D377" s="9" t="s">
-        <v>729</v>
       </c>
       <c r="E377" s="8"/>
       <c r="F377" s="8" t="s">
@@ -12121,13 +12118,13 @@
         <v>6</v>
       </c>
       <c r="B378" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="C378" s="8" t="s">
         <v>730</v>
       </c>
-      <c r="C378" s="8" t="s">
+      <c r="D378" s="9" t="s">
         <v>731</v>
-      </c>
-      <c r="D378" s="9" t="s">
-        <v>732</v>
       </c>
       <c r="E378" s="8"/>
       <c r="F378" s="8" t="s">
@@ -12139,13 +12136,13 @@
         <v>6</v>
       </c>
       <c r="B379" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="C379" s="8" t="s">
         <v>733</v>
       </c>
-      <c r="C379" s="8" t="s">
-        <v>734</v>
-      </c>
       <c r="D379" s="9" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E379" s="8"/>
       <c r="F379" s="8" t="s">
@@ -12157,13 +12154,13 @@
         <v>6</v>
       </c>
       <c r="B380" s="8" t="s">
+        <v>734</v>
+      </c>
+      <c r="C380" s="8" t="s">
         <v>735</v>
       </c>
-      <c r="C380" s="8" t="s">
-        <v>736</v>
-      </c>
       <c r="D380" s="9" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E380" s="8"/>
       <c r="F380" s="8" t="s">
@@ -12175,13 +12172,13 @@
         <v>6</v>
       </c>
       <c r="B381" s="8" t="s">
+        <v>736</v>
+      </c>
+      <c r="C381" s="8" t="s">
         <v>737</v>
       </c>
-      <c r="C381" s="8" t="s">
-        <v>738</v>
-      </c>
       <c r="D381" s="9" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E381" s="8"/>
       <c r="F381" s="8" t="s">
@@ -12193,10 +12190,10 @@
         <v>6</v>
       </c>
       <c r="B382" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="C382" s="8" t="s">
         <v>739</v>
-      </c>
-      <c r="C382" s="8" t="s">
-        <v>740</v>
       </c>
       <c r="D382" s="9" t="s">
         <v>669</v>
@@ -12211,10 +12208,10 @@
         <v>6</v>
       </c>
       <c r="B383" s="8" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C383" s="11" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D383" s="12"/>
       <c r="E383" s="11"/>
@@ -12225,13 +12222,13 @@
         <v>6</v>
       </c>
       <c r="B384" s="8" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C384" s="8" t="s">
+        <v>697</v>
+      </c>
+      <c r="D384" s="9" t="s">
         <v>698</v>
-      </c>
-      <c r="D384" s="9" t="s">
-        <v>699</v>
       </c>
       <c r="E384" s="8"/>
       <c r="F384" s="8" t="s">
@@ -12243,13 +12240,13 @@
         <v>6</v>
       </c>
       <c r="B385" s="8" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C385" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="D385" s="9" t="s">
         <v>701</v>
-      </c>
-      <c r="D385" s="9" t="s">
-        <v>702</v>
       </c>
       <c r="E385" s="8"/>
       <c r="F385" s="8" t="s">
@@ -12261,10 +12258,10 @@
         <v>6</v>
       </c>
       <c r="B386" s="8" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C386" s="11" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D386" s="12"/>
       <c r="E386" s="11"/>
@@ -12275,7 +12272,7 @@
         <v>6</v>
       </c>
       <c r="B387" s="8" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C387" s="8" t="s">
         <v>673</v>
@@ -12293,13 +12290,13 @@
         <v>6</v>
       </c>
       <c r="B388" s="8" t="s">
+        <v>745</v>
+      </c>
+      <c r="C388" s="8" t="s">
         <v>746</v>
       </c>
-      <c r="C388" s="8" t="s">
-        <v>747</v>
-      </c>
       <c r="D388" s="9" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E388" s="18"/>
       <c r="F388" s="8" t="s">
@@ -12311,13 +12308,13 @@
         <v>6</v>
       </c>
       <c r="B389" s="8" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C389" s="8" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D389" s="9" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E389" s="8"/>
       <c r="F389" s="8" t="s">
@@ -12329,10 +12326,10 @@
         <v>6</v>
       </c>
       <c r="B390" s="8" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C390" s="8" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D390" s="9" t="s">
         <v>680</v>
@@ -12347,13 +12344,13 @@
         <v>6</v>
       </c>
       <c r="B391" s="8" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C391" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="D391" s="9" t="s">
         <v>714</v>
-      </c>
-      <c r="D391" s="9" t="s">
-        <v>715</v>
       </c>
       <c r="E391" s="8"/>
       <c r="F391" s="8" t="s">
@@ -12365,10 +12362,10 @@
         <v>6</v>
       </c>
       <c r="B392" s="8" t="s">
+        <v>750</v>
+      </c>
+      <c r="C392" s="7" t="s">
         <v>751</v>
-      </c>
-      <c r="C392" s="7" t="s">
-        <v>752</v>
       </c>
       <c r="D392" s="12"/>
       <c r="E392" s="11"/>
@@ -12379,7 +12376,7 @@
         <v>6</v>
       </c>
       <c r="B393" s="8" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C393" s="11" t="s">
         <v>649</v>
@@ -12393,10 +12390,10 @@
         <v>6</v>
       </c>
       <c r="B394" s="8" t="s">
+        <v>753</v>
+      </c>
+      <c r="C394" s="8" t="s">
         <v>754</v>
-      </c>
-      <c r="C394" s="8" t="s">
-        <v>755</v>
       </c>
       <c r="D394" s="10">
         <v>78.3</v>
@@ -12411,10 +12408,10 @@
         <v>6</v>
       </c>
       <c r="B395" s="8" t="s">
+        <v>755</v>
+      </c>
+      <c r="C395" s="8" t="s">
         <v>756</v>
-      </c>
-      <c r="C395" s="8" t="s">
-        <v>757</v>
       </c>
       <c r="D395" s="10">
         <v>78.099999999999994</v>
@@ -12429,10 +12426,10 @@
         <v>6</v>
       </c>
       <c r="B396" s="8" t="s">
+        <v>757</v>
+      </c>
+      <c r="C396" s="8" t="s">
         <v>758</v>
-      </c>
-      <c r="C396" s="8" t="s">
-        <v>759</v>
       </c>
       <c r="D396" s="10">
         <v>78.099999999999994</v>
@@ -12447,7 +12444,7 @@
         <v>6</v>
       </c>
       <c r="B397" s="8" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C397" s="11" t="s">
         <v>657</v>
@@ -12461,10 +12458,10 @@
         <v>6</v>
       </c>
       <c r="B398" s="8" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C398" s="11" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D398" s="12"/>
       <c r="E398" s="11"/>
@@ -12475,13 +12472,13 @@
         <v>6</v>
       </c>
       <c r="B399" s="8" t="s">
+        <v>761</v>
+      </c>
+      <c r="C399" s="8" t="s">
         <v>762</v>
       </c>
-      <c r="C399" s="8" t="s">
+      <c r="D399" s="9" t="s">
         <v>763</v>
-      </c>
-      <c r="D399" s="9" t="s">
-        <v>764</v>
       </c>
       <c r="E399" s="8"/>
       <c r="F399" s="8" t="s">
@@ -12493,13 +12490,13 @@
         <v>6</v>
       </c>
       <c r="B400" s="8" t="s">
+        <v>764</v>
+      </c>
+      <c r="C400" s="8" t="s">
         <v>765</v>
       </c>
-      <c r="C400" s="8" t="s">
+      <c r="D400" s="9" t="s">
         <v>766</v>
-      </c>
-      <c r="D400" s="9" t="s">
-        <v>767</v>
       </c>
       <c r="E400" s="8"/>
       <c r="F400" s="8" t="s">
@@ -12511,10 +12508,10 @@
         <v>6</v>
       </c>
       <c r="B401" s="8" t="s">
+        <v>767</v>
+      </c>
+      <c r="C401" s="8" t="s">
         <v>768</v>
-      </c>
-      <c r="C401" s="8" t="s">
-        <v>769</v>
       </c>
       <c r="D401" s="9" t="s">
         <v>663</v>
@@ -12529,13 +12526,13 @@
         <v>6</v>
       </c>
       <c r="B402" s="8" t="s">
+        <v>769</v>
+      </c>
+      <c r="C402" s="8" t="s">
         <v>770</v>
       </c>
-      <c r="C402" s="8" t="s">
-        <v>771</v>
-      </c>
       <c r="D402" s="9" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E402" s="8"/>
       <c r="F402" s="8" t="s">
@@ -12547,13 +12544,13 @@
         <v>6</v>
       </c>
       <c r="B403" s="8" t="s">
+        <v>771</v>
+      </c>
+      <c r="C403" s="8" t="s">
         <v>772</v>
       </c>
-      <c r="C403" s="8" t="s">
-        <v>773</v>
-      </c>
       <c r="D403" s="9" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E403" s="8"/>
       <c r="F403" s="8" t="s">
@@ -12565,10 +12562,10 @@
         <v>6</v>
       </c>
       <c r="B404" s="8" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C404" s="8" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D404" s="9" t="s">
         <v>669</v>
@@ -12583,10 +12580,10 @@
         <v>6</v>
       </c>
       <c r="B405" s="8" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C405" s="11" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D405" s="12"/>
       <c r="E405" s="11"/>
@@ -12597,13 +12594,13 @@
         <v>6</v>
       </c>
       <c r="B406" s="8" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C406" s="8" t="s">
+        <v>697</v>
+      </c>
+      <c r="D406" s="9" t="s">
         <v>698</v>
-      </c>
-      <c r="D406" s="9" t="s">
-        <v>699</v>
       </c>
       <c r="E406" s="8"/>
       <c r="F406" s="8" t="s">
@@ -12615,13 +12612,13 @@
         <v>6</v>
       </c>
       <c r="B407" s="8" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C407" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="D407" s="9" t="s">
         <v>701</v>
-      </c>
-      <c r="D407" s="9" t="s">
-        <v>702</v>
       </c>
       <c r="E407" s="8"/>
       <c r="F407" s="8" t="s">
@@ -12633,10 +12630,10 @@
         <v>6</v>
       </c>
       <c r="B408" s="8" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C408" s="11" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D408" s="12"/>
       <c r="E408" s="11"/>
@@ -12647,7 +12644,7 @@
         <v>6</v>
       </c>
       <c r="B409" s="8" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C409" s="8" t="s">
         <v>673</v>
@@ -12665,13 +12662,13 @@
         <v>6</v>
       </c>
       <c r="B410" s="8" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C410" s="8" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D410" s="9" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E410" s="18"/>
       <c r="F410" s="8" t="s">
@@ -12683,13 +12680,13 @@
         <v>6</v>
       </c>
       <c r="B411" s="8" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C411" s="8" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D411" s="9" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E411" s="8"/>
       <c r="F411" s="8" t="s">
@@ -12701,10 +12698,10 @@
         <v>6</v>
       </c>
       <c r="B412" s="8" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C412" s="8" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D412" s="9" t="s">
         <v>680</v>
@@ -12719,13 +12716,13 @@
         <v>6</v>
       </c>
       <c r="B413" s="8" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C413" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="D413" s="9" t="s">
         <v>714</v>
-      </c>
-      <c r="D413" s="9" t="s">
-        <v>715</v>
       </c>
       <c r="E413" s="8"/>
       <c r="F413" s="8" t="s">
@@ -12737,10 +12734,10 @@
         <v>6</v>
       </c>
       <c r="B414" s="8" t="s">
+        <v>783</v>
+      </c>
+      <c r="C414" s="7" t="s">
         <v>784</v>
-      </c>
-      <c r="C414" s="7" t="s">
-        <v>785</v>
       </c>
       <c r="D414" s="12"/>
       <c r="E414" s="11"/>
@@ -12751,7 +12748,7 @@
         <v>6</v>
       </c>
       <c r="B415" s="8" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C415" s="11" t="s">
         <v>649</v>
@@ -12765,10 +12762,10 @@
         <v>6</v>
       </c>
       <c r="B416" s="8" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C416" s="8" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D416" s="10">
         <v>78.3</v>
@@ -12783,10 +12780,10 @@
         <v>6</v>
       </c>
       <c r="B417" s="8" t="s">
+        <v>787</v>
+      </c>
+      <c r="C417" s="8" t="s">
         <v>788</v>
-      </c>
-      <c r="C417" s="8" t="s">
-        <v>789</v>
       </c>
       <c r="D417" s="10">
         <v>78.099999999999994</v>
@@ -12801,10 +12798,10 @@
         <v>6</v>
       </c>
       <c r="B418" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C418" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D418" s="10">
         <v>78.099999999999994</v>
@@ -12819,7 +12816,7 @@
         <v>6</v>
       </c>
       <c r="B419" s="8" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C419" s="11" t="s">
         <v>657</v>
@@ -12833,10 +12830,10 @@
         <v>6</v>
       </c>
       <c r="B420" s="8" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C420" s="11" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D420" s="12"/>
       <c r="E420" s="11"/>
@@ -12847,13 +12844,13 @@
         <v>6</v>
       </c>
       <c r="B421" s="8" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C421" s="8" t="s">
+        <v>727</v>
+      </c>
+      <c r="D421" s="9" t="s">
         <v>728</v>
-      </c>
-      <c r="D421" s="9" t="s">
-        <v>729</v>
       </c>
       <c r="E421" s="8"/>
       <c r="F421" s="8" t="s">
@@ -12865,10 +12862,10 @@
         <v>6</v>
       </c>
       <c r="B422" s="8" t="s">
+        <v>793</v>
+      </c>
+      <c r="C422" s="8" t="s">
         <v>794</v>
-      </c>
-      <c r="C422" s="8" t="s">
-        <v>795</v>
       </c>
       <c r="D422" s="9" t="s">
         <v>660</v>
@@ -12883,10 +12880,10 @@
         <v>6</v>
       </c>
       <c r="B423" s="8" t="s">
+        <v>795</v>
+      </c>
+      <c r="C423" s="8" t="s">
         <v>796</v>
-      </c>
-      <c r="C423" s="8" t="s">
-        <v>797</v>
       </c>
       <c r="D423" s="9" t="s">
         <v>663</v>
@@ -12901,10 +12898,10 @@
         <v>6</v>
       </c>
       <c r="B424" s="8" t="s">
+        <v>797</v>
+      </c>
+      <c r="C424" s="8" t="s">
         <v>798</v>
-      </c>
-      <c r="C424" s="8" t="s">
-        <v>799</v>
       </c>
       <c r="D424" s="9" t="s">
         <v>669</v>
@@ -12919,10 +12916,10 @@
         <v>6</v>
       </c>
       <c r="B425" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="C425" s="11" t="s">
         <v>800</v>
-      </c>
-      <c r="C425" s="11" t="s">
-        <v>801</v>
       </c>
       <c r="D425" s="12"/>
       <c r="E425" s="11"/>
@@ -12933,13 +12930,13 @@
         <v>6</v>
       </c>
       <c r="B426" s="8" t="s">
+        <v>801</v>
+      </c>
+      <c r="C426" s="8" t="s">
         <v>802</v>
       </c>
-      <c r="C426" s="8" t="s">
+      <c r="D426" s="9" t="s">
         <v>803</v>
-      </c>
-      <c r="D426" s="9" t="s">
-        <v>804</v>
       </c>
       <c r="E426" s="8"/>
       <c r="F426" s="8" t="s">
@@ -12951,13 +12948,13 @@
         <v>6</v>
       </c>
       <c r="B427" s="8" t="s">
+        <v>804</v>
+      </c>
+      <c r="C427" s="8" t="s">
         <v>805</v>
       </c>
-      <c r="C427" s="8" t="s">
+      <c r="D427" s="9" t="s">
         <v>806</v>
-      </c>
-      <c r="D427" s="9" t="s">
-        <v>807</v>
       </c>
       <c r="E427" s="8"/>
       <c r="F427" s="8" t="s">
@@ -12969,13 +12966,13 @@
         <v>6</v>
       </c>
       <c r="B428" s="8" t="s">
+        <v>807</v>
+      </c>
+      <c r="C428" s="8" t="s">
         <v>808</v>
       </c>
-      <c r="C428" s="8" t="s">
-        <v>809</v>
-      </c>
       <c r="D428" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E428" s="8"/>
       <c r="F428" s="8" t="s">
@@ -12987,10 +12984,10 @@
         <v>6</v>
       </c>
       <c r="B429" s="8" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C429" s="11" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D429" s="12"/>
       <c r="E429" s="11"/>
@@ -13001,7 +12998,7 @@
         <v>6</v>
       </c>
       <c r="B430" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C430" s="8" t="s">
         <v>673</v>
@@ -13019,10 +13016,10 @@
         <v>6</v>
       </c>
       <c r="B431" s="8" t="s">
+        <v>811</v>
+      </c>
+      <c r="C431" s="8" t="s">
         <v>812</v>
-      </c>
-      <c r="C431" s="8" t="s">
-        <v>813</v>
       </c>
       <c r="D431" s="9" t="s">
         <v>677</v>
@@ -13037,13 +13034,13 @@
         <v>6</v>
       </c>
       <c r="B432" s="8" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C432" s="8" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D432" s="9" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E432" s="8"/>
       <c r="F432" s="8" t="s">
@@ -13055,13 +13052,13 @@
         <v>6</v>
       </c>
       <c r="B433" s="8" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C433" s="8" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D433" s="9" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E433" s="8"/>
       <c r="F433" s="8" t="s">
@@ -13073,13 +13070,13 @@
         <v>6</v>
       </c>
       <c r="B434" s="8" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C434" s="8" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D434" s="9" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E434" s="8"/>
       <c r="F434" s="8" t="s">
@@ -13091,10 +13088,10 @@
         <v>6</v>
       </c>
       <c r="B435" s="8" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C435" s="11" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D435" s="12"/>
       <c r="E435" s="11"/>
@@ -13105,13 +13102,13 @@
         <v>6</v>
       </c>
       <c r="B436" s="8" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C436" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="D436" s="9" t="s">
         <v>687</v>
-      </c>
-      <c r="D436" s="9" t="s">
-        <v>688</v>
       </c>
       <c r="E436" s="8"/>
       <c r="F436" s="8" t="s">
@@ -13123,13 +13120,13 @@
         <v>6</v>
       </c>
       <c r="B437" s="8" t="s">
+        <v>818</v>
+      </c>
+      <c r="C437" s="8" t="s">
         <v>819</v>
       </c>
-      <c r="C437" s="8" t="s">
+      <c r="D437" s="9" t="s">
         <v>820</v>
-      </c>
-      <c r="D437" s="9" t="s">
-        <v>821</v>
       </c>
       <c r="E437" s="8"/>
       <c r="F437" s="8" t="s">
@@ -13141,13 +13138,13 @@
         <v>6</v>
       </c>
       <c r="B438" s="8" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C438" s="8" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D438" s="9" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E438" s="8"/>
       <c r="F438" s="8" t="s">
@@ -13159,10 +13156,10 @@
         <v>6</v>
       </c>
       <c r="B439" s="8" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C439" s="11" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D439" s="12"/>
       <c r="E439" s="11"/>
@@ -13173,13 +13170,13 @@
         <v>6</v>
       </c>
       <c r="B440" s="8" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C440" s="8" t="s">
+        <v>697</v>
+      </c>
+      <c r="D440" s="9" t="s">
         <v>698</v>
-      </c>
-      <c r="D440" s="9" t="s">
-        <v>699</v>
       </c>
       <c r="E440" s="8"/>
       <c r="F440" s="8" t="s">
@@ -13191,13 +13188,13 @@
         <v>6</v>
       </c>
       <c r="B441" s="8" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C441" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="D441" s="9" t="s">
         <v>701</v>
-      </c>
-      <c r="D441" s="9" t="s">
-        <v>702</v>
       </c>
       <c r="E441" s="8"/>
       <c r="F441" s="8" t="s">
@@ -13209,10 +13206,10 @@
         <v>6</v>
       </c>
       <c r="B442" s="8" t="s">
+        <v>825</v>
+      </c>
+      <c r="C442" s="11" t="s">
         <v>826</v>
-      </c>
-      <c r="C442" s="11" t="s">
-        <v>827</v>
       </c>
       <c r="D442" s="12"/>
       <c r="E442" s="11"/>
@@ -13223,13 +13220,13 @@
         <v>6</v>
       </c>
       <c r="B443" s="8" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C443" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="D443" s="9" t="s">
         <v>714</v>
-      </c>
-      <c r="D443" s="9" t="s">
-        <v>715</v>
       </c>
       <c r="E443" s="8"/>
       <c r="F443" s="8" t="s">
@@ -13241,10 +13238,10 @@
         <v>6</v>
       </c>
       <c r="B444" s="8" t="s">
+        <v>828</v>
+      </c>
+      <c r="C444" s="7" t="s">
         <v>829</v>
-      </c>
-      <c r="C444" s="7" t="s">
-        <v>830</v>
       </c>
       <c r="D444" s="12"/>
       <c r="E444" s="11"/>
@@ -13255,10 +13252,10 @@
         <v>6</v>
       </c>
       <c r="B445" s="8" t="s">
+        <v>830</v>
+      </c>
+      <c r="C445" s="8" t="s">
         <v>831</v>
-      </c>
-      <c r="C445" s="8" t="s">
-        <v>832</v>
       </c>
       <c r="D445" s="10"/>
       <c r="E445" s="8"/>
@@ -13271,7 +13268,7 @@
         <v>6</v>
       </c>
       <c r="B446" s="8" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C446" s="8" t="s">
         <v>649</v>
@@ -13287,7 +13284,7 @@
         <v>6</v>
       </c>
       <c r="B447" s="8" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C447" s="8" t="s">
         <v>657</v>
@@ -13303,10 +13300,10 @@
         <v>6</v>
       </c>
       <c r="B448" s="8" t="s">
+        <v>834</v>
+      </c>
+      <c r="C448" s="7" t="s">
         <v>835</v>
-      </c>
-      <c r="C448" s="7" t="s">
-        <v>836</v>
       </c>
       <c r="D448" s="12"/>
       <c r="E448" s="7"/>
@@ -13317,10 +13314,10 @@
         <v>6</v>
       </c>
       <c r="B449" s="8" t="s">
+        <v>836</v>
+      </c>
+      <c r="C449" s="8" t="s">
         <v>837</v>
-      </c>
-      <c r="C449" s="8" t="s">
-        <v>838</v>
       </c>
       <c r="D449" s="10"/>
       <c r="E449" s="8"/>
@@ -13333,7 +13330,7 @@
         <v>6</v>
       </c>
       <c r="B450" s="8" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C450" s="8" t="s">
         <v>649</v>
@@ -13349,10 +13346,10 @@
         <v>6</v>
       </c>
       <c r="B451" s="8" t="s">
+        <v>839</v>
+      </c>
+      <c r="C451" s="7" t="s">
         <v>840</v>
-      </c>
-      <c r="C451" s="7" t="s">
-        <v>841</v>
       </c>
       <c r="D451" s="12"/>
       <c r="E451" s="11"/>
@@ -13363,7 +13360,7 @@
         <v>6</v>
       </c>
       <c r="B452" s="8" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C452" s="11" t="s">
         <v>649</v>
@@ -13377,10 +13374,10 @@
         <v>6</v>
       </c>
       <c r="B453" s="8" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C453" s="8" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D453" s="10">
         <v>78.3</v>
@@ -13395,10 +13392,10 @@
         <v>6</v>
       </c>
       <c r="B454" s="8" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C454" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D454" s="10">
         <v>78.099999999999994</v>
@@ -13413,10 +13410,10 @@
         <v>6</v>
       </c>
       <c r="B455" s="8" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C455" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D455" s="10">
         <v>78.099999999999994</v>
@@ -13431,7 +13428,7 @@
         <v>6</v>
       </c>
       <c r="B456" s="8" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C456" s="11" t="s">
         <v>657</v>
@@ -13445,10 +13442,10 @@
         <v>6</v>
       </c>
       <c r="B457" s="8" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C457" s="11" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D457" s="12"/>
       <c r="E457" s="11"/>
@@ -13459,10 +13456,10 @@
         <v>6</v>
       </c>
       <c r="B458" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="C458" s="8" t="s">
         <v>848</v>
-      </c>
-      <c r="C458" s="8" t="s">
-        <v>849</v>
       </c>
       <c r="D458" s="9" t="s">
         <v>660</v>
@@ -13477,10 +13474,10 @@
         <v>6</v>
       </c>
       <c r="B459" s="8" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C459" s="8" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D459" s="9" t="s">
         <v>663</v>
@@ -13495,13 +13492,13 @@
         <v>6</v>
       </c>
       <c r="B460" s="8" t="s">
+        <v>850</v>
+      </c>
+      <c r="C460" s="8" t="s">
         <v>851</v>
       </c>
-      <c r="C460" s="8" t="s">
+      <c r="D460" s="9" t="s">
         <v>852</v>
-      </c>
-      <c r="D460" s="9" t="s">
-        <v>853</v>
       </c>
       <c r="E460" s="8"/>
       <c r="F460" s="8" t="s">
@@ -13513,13 +13510,13 @@
         <v>6</v>
       </c>
       <c r="B461" s="8" t="s">
+        <v>853</v>
+      </c>
+      <c r="C461" s="8" t="s">
         <v>854</v>
       </c>
-      <c r="C461" s="8" t="s">
-        <v>855</v>
-      </c>
       <c r="D461" s="9" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E461" s="8"/>
       <c r="F461" s="8" t="s">
@@ -13531,10 +13528,10 @@
         <v>6</v>
       </c>
       <c r="B462" s="8" t="s">
+        <v>855</v>
+      </c>
+      <c r="C462" s="8" t="s">
         <v>856</v>
-      </c>
-      <c r="C462" s="8" t="s">
-        <v>857</v>
       </c>
       <c r="D462" s="10"/>
       <c r="E462" s="8"/>
@@ -13547,10 +13544,10 @@
         <v>6</v>
       </c>
       <c r="B463" s="8" t="s">
+        <v>857</v>
+      </c>
+      <c r="C463" s="8" t="s">
         <v>858</v>
-      </c>
-      <c r="C463" s="8" t="s">
-        <v>859</v>
       </c>
       <c r="D463" s="9" t="s">
         <v>669</v>
@@ -13565,13 +13562,13 @@
         <v>6</v>
       </c>
       <c r="B464" s="8" t="s">
+        <v>859</v>
+      </c>
+      <c r="C464" s="8" t="s">
         <v>860</v>
       </c>
-      <c r="C464" s="8" t="s">
-        <v>861</v>
-      </c>
       <c r="D464" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E464" s="8"/>
       <c r="F464" s="8" t="s">
@@ -13583,10 +13580,10 @@
         <v>6</v>
       </c>
       <c r="B465" s="8" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C465" s="11" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D465" s="12"/>
       <c r="E465" s="11"/>
@@ -13597,13 +13594,13 @@
         <v>6</v>
       </c>
       <c r="B466" s="8" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C466" s="8" t="s">
+        <v>697</v>
+      </c>
+      <c r="D466" s="9" t="s">
         <v>698</v>
-      </c>
-      <c r="D466" s="9" t="s">
-        <v>699</v>
       </c>
       <c r="E466" s="8"/>
       <c r="F466" s="8" t="s">
@@ -13615,13 +13612,13 @@
         <v>6</v>
       </c>
       <c r="B467" s="8" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C467" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="D467" s="9" t="s">
         <v>701</v>
-      </c>
-      <c r="D467" s="9" t="s">
-        <v>702</v>
       </c>
       <c r="E467" s="8"/>
       <c r="F467" s="8" t="s">
@@ -13633,10 +13630,10 @@
         <v>6</v>
       </c>
       <c r="B468" s="8" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C468" s="11" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D468" s="12"/>
       <c r="E468" s="11"/>
@@ -13647,7 +13644,7 @@
         <v>6</v>
       </c>
       <c r="B469" s="8" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C469" s="8" t="s">
         <v>673</v>
@@ -13665,10 +13662,10 @@
         <v>6</v>
       </c>
       <c r="B470" s="8" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C470" s="8" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D470" s="9" t="s">
         <v>677</v>
@@ -13683,13 +13680,13 @@
         <v>6</v>
       </c>
       <c r="B471" s="8" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C471" s="8" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D471" s="9" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E471" s="8"/>
       <c r="F471" s="8" t="s">
@@ -13701,10 +13698,10 @@
         <v>6</v>
       </c>
       <c r="B472" s="8" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C472" s="8" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D472" s="9" t="s">
         <v>680</v>
@@ -13719,13 +13716,13 @@
         <v>6</v>
       </c>
       <c r="B473" s="8" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C473" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="D473" s="9" t="s">
         <v>714</v>
-      </c>
-      <c r="D473" s="9" t="s">
-        <v>715</v>
       </c>
       <c r="E473" s="8"/>
       <c r="F473" s="8" t="s">
@@ -13759,25 +13756,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
+        <v>870</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>871</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>872</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>873</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>874</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>875</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>876</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -13785,17 +13782,17 @@
         <v>15</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>877</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>878</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="13" t="s">
         <v>879</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>880</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G2" s="13"/>
     </row>
@@ -13804,17 +13801,17 @@
         <v>19</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G3" s="13"/>
     </row>
@@ -13823,17 +13820,17 @@
         <v>22</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G4" s="13"/>
     </row>
@@ -13842,36 +13839,36 @@
         <v>25</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:7" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
+        <v>885</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>877</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>886</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>878</v>
-      </c>
-      <c r="C6" s="13" t="s">
+      <c r="D6" s="13" t="s">
         <v>887</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>888</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G6" s="13"/>
     </row>
@@ -13940,25 +13937,25 @@
   <sheetData>
     <row r="1" spans="1:255" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
+        <v>870</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>871</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>872</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>873</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>874</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>875</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>876</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>877</v>
       </c>
       <c r="H1" s="36"/>
       <c r="I1" s="37"/>
@@ -14214,17 +14211,17 @@
         <v>28</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>888</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>889</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="13" t="s">
         <v>890</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>891</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="39"/>
@@ -14481,17 +14478,17 @@
         <v>31</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="39"/>
@@ -14748,17 +14745,17 @@
         <v>34</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>33</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="39"/>
@@ -15015,17 +15012,17 @@
         <v>37</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>36</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="39"/>
@@ -15282,17 +15279,17 @@
         <v>40</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>39</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="39"/>
@@ -15549,17 +15546,17 @@
         <v>46</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>45</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="39"/>
@@ -15813,20 +15810,20 @@
     </row>
     <row r="8" spans="1:255" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
+        <v>897</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>888</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>898</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>889</v>
-      </c>
-      <c r="C8" s="13" t="s">
+      <c r="D8" s="13" t="s">
         <v>899</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>900</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="39"/>
@@ -16083,17 +16080,17 @@
         <v>57</v>
       </c>
       <c r="B9" s="13" t="s">
+        <v>900</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>901</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>902</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>56</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="39"/>
@@ -16350,17 +16347,17 @@
         <v>101</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>100</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="39"/>
@@ -16617,17 +16614,17 @@
         <v>60</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>155</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="39"/>
@@ -16884,17 +16881,17 @@
         <v>66</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>65</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="39"/>
@@ -17151,17 +17148,17 @@
         <v>69</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C13" s="13" t="s">
+        <v>905</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>906</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>907</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="39"/>
@@ -17418,17 +17415,17 @@
         <v>83</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C14" s="13" t="s">
+        <v>907</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>908</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>909</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="39"/>
@@ -17685,17 +17682,17 @@
         <v>86</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>85</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="39"/>
@@ -17952,17 +17949,17 @@
         <v>107</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>106</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="39"/>
@@ -18219,19 +18216,19 @@
         <v>110</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>109</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="39"/>
@@ -18488,17 +18485,17 @@
         <v>104</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>103</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="39"/>
@@ -18752,20 +18749,20 @@
     </row>
     <row r="19" spans="1:255" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
+        <v>914</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>915</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="C19" s="13" t="s">
         <v>916</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="D19" s="13" t="s">
         <v>917</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>918</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="40"/>
@@ -19022,17 +19019,17 @@
         <v>132</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>131</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="39"/>
@@ -19289,17 +19286,17 @@
         <v>135</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>134</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G21" s="13"/>
       <c r="H21" s="39"/>
@@ -19556,17 +19553,17 @@
         <v>138</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>137</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G22" s="13"/>
       <c r="H22" s="39"/>
@@ -19823,17 +19820,17 @@
         <v>141</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>140</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G23" s="13"/>
       <c r="H23" s="39"/>
@@ -20090,17 +20087,17 @@
         <v>43</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>42</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G24" s="13"/>
       <c r="H24" s="39"/>
@@ -20357,17 +20354,17 @@
         <v>115</v>
       </c>
       <c r="B25" s="13" t="s">
+        <v>923</v>
+      </c>
+      <c r="C25" s="13" t="s">
         <v>924</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>925</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>152</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G25" s="13"/>
       <c r="H25" s="39"/>
@@ -20624,17 +20621,17 @@
         <v>201</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C26" s="13" t="s">
+        <v>925</v>
+      </c>
+      <c r="D26" s="13" t="s">
         <v>926</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>927</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G26" s="13"/>
       <c r="H26" s="39"/>
@@ -20891,17 +20888,17 @@
         <v>204</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>203</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G27" s="13"/>
       <c r="H27" s="39"/>
@@ -21158,17 +21155,17 @@
         <v>168</v>
       </c>
       <c r="B28" s="13" t="s">
+        <v>928</v>
+      </c>
+      <c r="C28" s="13" t="s">
         <v>929</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>930</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>167</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G28" s="13"/>
       <c r="H28" s="39"/>
@@ -21425,17 +21422,17 @@
         <v>171</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C29" s="13" t="s">
+        <v>930</v>
+      </c>
+      <c r="D29" s="13" t="s">
         <v>931</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>932</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G29" s="13"/>
       <c r="H29" s="39"/>
@@ -21692,17 +21689,17 @@
         <v>180</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C30" s="13" t="s">
+        <v>932</v>
+      </c>
+      <c r="D30" s="13" t="s">
         <v>933</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>934</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G30" s="13"/>
       <c r="H30" s="39"/>
@@ -21959,17 +21956,17 @@
         <v>183</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C31" s="13" t="s">
+        <v>934</v>
+      </c>
+      <c r="D31" s="13" t="s">
         <v>935</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>936</v>
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G31" s="13"/>
       <c r="H31" s="39"/>
@@ -22226,17 +22223,17 @@
         <v>186</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C32" s="13" t="s">
+        <v>936</v>
+      </c>
+      <c r="D32" s="13" t="s">
         <v>937</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>938</v>
       </c>
       <c r="E32" s="13"/>
       <c r="F32" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G32" s="13"/>
       <c r="H32" s="39"/>
@@ -22493,17 +22490,17 @@
         <v>198</v>
       </c>
       <c r="B33" s="13" t="s">
+        <v>938</v>
+      </c>
+      <c r="C33" s="13" t="s">
         <v>939</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="D33" s="13" t="s">
         <v>940</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>941</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G33" s="13"/>
       <c r="H33" s="39"/>
@@ -22760,17 +22757,17 @@
         <v>261</v>
       </c>
       <c r="B34" s="13" t="s">
+        <v>941</v>
+      </c>
+      <c r="C34" s="13" t="s">
         <v>942</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>943</v>
       </c>
       <c r="D34" s="13" t="s">
         <v>260</v>
       </c>
       <c r="E34" s="13"/>
       <c r="F34" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G34" s="13"/>
       <c r="H34" s="39"/>
@@ -23027,17 +23024,17 @@
         <v>264</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C35" s="13" t="s">
+        <v>943</v>
+      </c>
+      <c r="D35" s="13" t="s">
         <v>944</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>945</v>
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G35" s="13"/>
       <c r="H35" s="39"/>
@@ -23294,17 +23291,17 @@
         <v>270</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D36" s="13" t="s">
         <v>269</v>
       </c>
       <c r="E36" s="13"/>
       <c r="F36" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G36" s="13"/>
       <c r="H36" s="39"/>
@@ -23561,20 +23558,20 @@
         <v>273</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D37" s="13" t="s">
         <v>272</v>
       </c>
       <c r="E37" s="13"/>
       <c r="F37" s="13" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H37" s="39"/>
       <c r="I37" s="30"/>
@@ -23830,17 +23827,17 @@
         <v>605</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D38" s="13" t="s">
         <v>604</v>
       </c>
       <c r="E38" s="13"/>
       <c r="F38" s="13" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G38" s="13"/>
       <c r="H38" s="39"/>
@@ -24097,17 +24094,17 @@
         <v>299</v>
       </c>
       <c r="B39" s="13" t="s">
+        <v>949</v>
+      </c>
+      <c r="C39" s="13" t="s">
         <v>950</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>951</v>
       </c>
       <c r="D39" s="13" t="s">
         <v>298</v>
       </c>
       <c r="E39" s="13"/>
       <c r="F39" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G39" s="13"/>
       <c r="H39" s="39"/>
@@ -24364,17 +24361,17 @@
         <v>284</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C40" s="13" t="s">
+        <v>951</v>
+      </c>
+      <c r="D40" s="13" t="s">
         <v>952</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>953</v>
       </c>
       <c r="E40" s="13"/>
       <c r="F40" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G40" s="13"/>
       <c r="H40" s="39"/>
@@ -24631,17 +24628,17 @@
         <v>287</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C41" s="13" t="s">
+        <v>953</v>
+      </c>
+      <c r="D41" s="13" t="s">
         <v>954</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>955</v>
       </c>
       <c r="E41" s="13"/>
       <c r="F41" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G41" s="13"/>
       <c r="H41" s="39"/>
@@ -24898,17 +24895,17 @@
         <v>296</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C42" s="13" t="s">
+        <v>955</v>
+      </c>
+      <c r="D42" s="13" t="s">
         <v>956</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>957</v>
       </c>
       <c r="E42" s="13"/>
       <c r="F42" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G42" s="13"/>
       <c r="H42" s="39"/>
@@ -25165,17 +25162,17 @@
         <v>63</v>
       </c>
       <c r="B43" s="43" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C43" s="43" t="s">
+        <v>957</v>
+      </c>
+      <c r="D43" s="43" t="s">
         <v>958</v>
-      </c>
-      <c r="D43" s="43" t="s">
-        <v>959</v>
       </c>
       <c r="E43" s="43"/>
       <c r="F43" s="43" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G43" s="43"/>
       <c r="H43" s="39"/>
@@ -25432,17 +25429,17 @@
         <v>71</v>
       </c>
       <c r="B44" s="43" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C44" s="43" t="s">
+        <v>959</v>
+      </c>
+      <c r="D44" s="43" t="s">
         <v>960</v>
-      </c>
-      <c r="D44" s="43" t="s">
-        <v>961</v>
       </c>
       <c r="E44" s="43"/>
       <c r="F44" s="43" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G44" s="43"/>
       <c r="H44" s="39"/>
@@ -25699,17 +25696,17 @@
         <v>74</v>
       </c>
       <c r="B45" s="43" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C45" s="43" t="s">
+        <v>961</v>
+      </c>
+      <c r="D45" s="43" t="s">
         <v>962</v>
-      </c>
-      <c r="D45" s="43" t="s">
-        <v>963</v>
       </c>
       <c r="E45" s="43"/>
       <c r="F45" s="43" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G45" s="43"/>
       <c r="H45" s="39"/>
@@ -25966,17 +25963,17 @@
         <v>77</v>
       </c>
       <c r="B46" s="43" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C46" s="43" t="s">
+        <v>963</v>
+      </c>
+      <c r="D46" s="43" t="s">
         <v>964</v>
-      </c>
-      <c r="D46" s="43" t="s">
-        <v>965</v>
       </c>
       <c r="E46" s="43"/>
       <c r="F46" s="43" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G46" s="43"/>
       <c r="H46" s="39"/>
@@ -26233,17 +26230,17 @@
         <v>80</v>
       </c>
       <c r="B47" s="43" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C47" s="43" t="s">
+        <v>965</v>
+      </c>
+      <c r="D47" s="43" t="s">
         <v>966</v>
-      </c>
-      <c r="D47" s="43" t="s">
-        <v>967</v>
       </c>
       <c r="E47" s="43"/>
       <c r="F47" s="43" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G47" s="43"/>
       <c r="H47" s="39"/>
@@ -26500,17 +26497,17 @@
         <v>89</v>
       </c>
       <c r="B48" s="43" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C48" s="43" t="s">
+        <v>967</v>
+      </c>
+      <c r="D48" s="43" t="s">
         <v>968</v>
-      </c>
-      <c r="D48" s="43" t="s">
-        <v>969</v>
       </c>
       <c r="E48" s="43"/>
       <c r="F48" s="43" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G48" s="43"/>
       <c r="H48" s="39"/>
@@ -26767,17 +26764,17 @@
         <v>92</v>
       </c>
       <c r="B49" s="43" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C49" s="43" t="s">
+        <v>969</v>
+      </c>
+      <c r="D49" s="43" t="s">
         <v>970</v>
-      </c>
-      <c r="D49" s="43" t="s">
-        <v>971</v>
       </c>
       <c r="E49" s="43"/>
       <c r="F49" s="43" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G49" s="43"/>
       <c r="H49" s="39"/>
@@ -27034,17 +27031,17 @@
         <v>95</v>
       </c>
       <c r="B50" s="43" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C50" s="43" t="s">
+        <v>971</v>
+      </c>
+      <c r="D50" s="43" t="s">
         <v>972</v>
-      </c>
-      <c r="D50" s="43" t="s">
-        <v>973</v>
       </c>
       <c r="E50" s="43"/>
       <c r="F50" s="43" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G50" s="43"/>
       <c r="H50" s="39"/>
@@ -27301,17 +27298,17 @@
         <v>98</v>
       </c>
       <c r="B51" s="43" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C51" s="43" t="s">
+        <v>973</v>
+      </c>
+      <c r="D51" s="43" t="s">
         <v>974</v>
-      </c>
-      <c r="D51" s="43" t="s">
-        <v>975</v>
       </c>
       <c r="E51" s="43"/>
       <c r="F51" s="43" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G51" s="43"/>
       <c r="H51" s="39"/>
@@ -27568,17 +27565,17 @@
         <v>174</v>
       </c>
       <c r="B52" s="43" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C52" s="43" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D52" s="43" t="s">
         <v>173</v>
       </c>
       <c r="E52" s="43"/>
       <c r="F52" s="43" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G52" s="43"/>
       <c r="H52" s="39"/>
@@ -27835,17 +27832,17 @@
         <v>177</v>
       </c>
       <c r="B53" s="43" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C53" s="43" t="s">
+        <v>976</v>
+      </c>
+      <c r="D53" s="43" t="s">
         <v>977</v>
-      </c>
-      <c r="D53" s="43" t="s">
-        <v>978</v>
       </c>
       <c r="E53" s="43"/>
       <c r="F53" s="43" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G53" s="43"/>
       <c r="H53" s="39"/>
@@ -28102,17 +28099,17 @@
         <v>267</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C54" s="43" t="s">
+        <v>978</v>
+      </c>
+      <c r="D54" s="43" t="s">
         <v>979</v>
-      </c>
-      <c r="D54" s="43" t="s">
-        <v>980</v>
       </c>
       <c r="E54" s="43"/>
       <c r="F54" s="43" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G54" s="43"/>
       <c r="H54" s="39"/>
@@ -28369,17 +28366,17 @@
         <v>290</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C55" s="43" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="D55" s="43" t="s">
         <v>289</v>
       </c>
       <c r="E55" s="43"/>
       <c r="F55" s="43" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G55" s="43"/>
       <c r="H55" s="39"/>
@@ -28636,17 +28633,17 @@
         <v>129</v>
       </c>
       <c r="B56" s="43" t="s">
+        <v>981</v>
+      </c>
+      <c r="C56" s="43" t="s">
         <v>982</v>
       </c>
-      <c r="C56" s="43" t="s">
+      <c r="D56" s="13" t="s">
         <v>983</v>
-      </c>
-      <c r="D56" s="13" t="s">
-        <v>984</v>
       </c>
       <c r="E56" s="13"/>
       <c r="F56" s="13" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G56" s="13"/>
       <c r="H56" s="44"/>
@@ -28925,25 +28922,25 @@
   <sheetData>
     <row r="1" spans="1:255" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
+        <v>870</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>871</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>872</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>873</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>874</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>875</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>876</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>877</v>
       </c>
       <c r="H1" s="48"/>
       <c r="I1" s="49"/>
@@ -29196,20 +29193,20 @@
     </row>
     <row r="2" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
+        <v>984</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>985</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="C2" s="13" t="s">
         <v>986</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>987</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>323</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="39"/>
@@ -29463,20 +29460,20 @@
     </row>
     <row r="3" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
+        <v>987</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>988</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>989</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>325</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="39"/>
@@ -29730,20 +29727,20 @@
     </row>
     <row r="4" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
+        <v>989</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>990</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>991</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>327</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="39"/>
@@ -29997,20 +29994,20 @@
     </row>
     <row r="5" spans="1:255" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
+        <v>991</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>992</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>993</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>331</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="39"/>
@@ -30264,20 +30261,20 @@
     </row>
     <row r="6" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
+        <v>993</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>994</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C6" s="13" t="s">
+      <c r="D6" s="13" t="s">
         <v>995</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>996</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="39"/>
@@ -30531,20 +30528,20 @@
     </row>
     <row r="7" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
+        <v>996</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>997</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C7" s="13" t="s">
+      <c r="D7" s="13" t="s">
         <v>998</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>999</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="39"/>
@@ -30798,20 +30795,20 @@
     </row>
     <row r="8" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
+        <v>999</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>1000</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C8" s="13" t="s">
+      <c r="D8" s="13" t="s">
         <v>1001</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>1002</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="39"/>
@@ -31065,20 +31062,20 @@
     </row>
     <row r="9" spans="1:255" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>1003</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C9" s="13" t="s">
+      <c r="D9" s="13" t="s">
         <v>1004</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>1005</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="39"/>
@@ -31332,20 +31329,20 @@
     </row>
     <row r="10" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>1006</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>1007</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>412</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="39"/>
@@ -31599,20 +31596,20 @@
     </row>
     <row r="11" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>1008</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>1009</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>414</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="39"/>
@@ -31866,20 +31863,20 @@
     </row>
     <row r="12" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>1010</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C12" s="13" t="s">
+      <c r="D12" s="13" t="s">
         <v>1011</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>1012</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="39"/>
@@ -32133,20 +32130,20 @@
     </row>
     <row r="13" spans="1:255" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>1013</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>1014</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>418</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="39"/>
@@ -32400,20 +32397,20 @@
     </row>
     <row r="14" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>1015</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>1016</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>421</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="39"/>
@@ -32667,20 +32664,20 @@
     </row>
     <row r="15" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>1017</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>1018</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>423</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="39"/>
@@ -32934,20 +32931,20 @@
     </row>
     <row r="16" spans="1:255" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>1019</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>1020</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>425</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="39"/>
@@ -33201,20 +33198,20 @@
     </row>
     <row r="17" spans="1:255" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>1021</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C17" s="13" t="s">
+      <c r="D17" s="13" t="s">
         <v>1022</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>1023</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="39"/>
@@ -33468,20 +33465,20 @@
     </row>
     <row r="18" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>1024</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>1025</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>429</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="39"/>
@@ -33735,20 +33732,20 @@
     </row>
     <row r="19" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>1026</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>1027</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>431</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="39"/>
@@ -34002,20 +33999,20 @@
     </row>
     <row r="20" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>1028</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>1029</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>433</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="39"/>
@@ -34269,20 +34266,20 @@
     </row>
     <row r="21" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>1030</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C21" s="13" t="s">
+      <c r="D21" s="13" t="s">
         <v>1031</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>1032</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G21" s="13"/>
       <c r="H21" s="39"/>
@@ -34536,20 +34533,20 @@
     </row>
     <row r="22" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>1033</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>1034</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>439</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G22" s="13"/>
       <c r="H22" s="39"/>
@@ -34803,20 +34800,20 @@
     </row>
     <row r="23" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C23" s="13" t="s">
         <v>1035</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>1036</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>441</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G23" s="13"/>
       <c r="H23" s="39"/>
@@ -35070,20 +35067,20 @@
     </row>
     <row r="24" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>1037</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>1038</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>443</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G24" s="13"/>
       <c r="H24" s="39"/>
@@ -35337,20 +35334,20 @@
     </row>
     <row r="25" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C25" s="13" t="s">
         <v>1039</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C25" s="13" t="s">
+      <c r="D25" s="13" t="s">
         <v>1040</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>1041</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G25" s="13"/>
       <c r="H25" s="39"/>
@@ -35604,20 +35601,20 @@
     </row>
     <row r="26" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C26" s="13" t="s">
         <v>1042</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>1043</v>
       </c>
       <c r="D26" s="13" t="s">
         <v>449</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G26" s="13"/>
       <c r="H26" s="39"/>
@@ -35871,20 +35868,20 @@
     </row>
     <row r="27" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C27" s="13" t="s">
         <v>1044</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C27" s="13" t="s">
+      <c r="D27" s="13" t="s">
         <v>1045</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>1046</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="13" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G27" s="13"/>
       <c r="H27" s="39"/>
@@ -36138,20 +36135,20 @@
     </row>
     <row r="28" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C28" s="13" t="s">
         <v>1047</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>1048</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>453</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G28" s="13"/>
       <c r="H28" s="39"/>
@@ -36405,20 +36402,20 @@
     </row>
     <row r="29" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C29" s="13" t="s">
         <v>1049</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>1050</v>
       </c>
       <c r="D29" s="13" t="s">
         <v>455</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G29" s="13"/>
       <c r="H29" s="39"/>
@@ -36672,20 +36669,20 @@
     </row>
     <row r="30" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C30" s="13" t="s">
         <v>1051</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>1052</v>
       </c>
       <c r="D30" s="13" t="s">
         <v>457</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G30" s="13"/>
       <c r="H30" s="39"/>
@@ -36939,20 +36936,20 @@
     </row>
     <row r="31" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C31" s="13" t="s">
         <v>1053</v>
       </c>
-      <c r="B31" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C31" s="13" t="s">
+      <c r="D31" s="13" t="s">
         <v>1054</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>1055</v>
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G31" s="13"/>
       <c r="H31" s="39"/>
@@ -37206,20 +37203,20 @@
     </row>
     <row r="32" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C32" s="13" t="s">
         <v>1056</v>
       </c>
-      <c r="B32" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C32" s="13" t="s">
+      <c r="D32" s="13" t="s">
         <v>1057</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>1058</v>
       </c>
       <c r="E32" s="13"/>
       <c r="F32" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G32" s="13"/>
       <c r="H32" s="39"/>
@@ -37473,20 +37470,20 @@
     </row>
     <row r="33" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C33" s="13" t="s">
         <v>1059</v>
       </c>
-      <c r="B33" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C33" s="13" t="s">
+      <c r="D33" s="13" t="s">
         <v>1060</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>1061</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G33" s="13"/>
       <c r="H33" s="39"/>
@@ -37740,20 +37737,20 @@
     </row>
     <row r="34" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C34" s="13" t="s">
         <v>1062</v>
       </c>
-      <c r="B34" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C34" s="13" t="s">
+      <c r="D34" s="13" t="s">
         <v>1063</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>1064</v>
       </c>
       <c r="E34" s="13"/>
       <c r="F34" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G34" s="13"/>
       <c r="H34" s="39"/>
@@ -38007,20 +38004,20 @@
     </row>
     <row r="35" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C35" s="13" t="s">
         <v>1065</v>
       </c>
-      <c r="B35" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C35" s="13" t="s">
+      <c r="D35" s="13" t="s">
         <v>1066</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>1067</v>
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G35" s="13"/>
       <c r="H35" s="39"/>
@@ -38274,20 +38271,20 @@
     </row>
     <row r="36" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C36" s="13" t="s">
         <v>1068</v>
       </c>
-      <c r="B36" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C36" s="13" t="s">
+      <c r="D36" s="13" t="s">
         <v>1069</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>1070</v>
       </c>
       <c r="E36" s="13"/>
       <c r="F36" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G36" s="13"/>
       <c r="H36" s="39"/>
@@ -38541,20 +38538,20 @@
     </row>
     <row r="37" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C37" s="13" t="s">
         <v>1071</v>
       </c>
-      <c r="B37" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C37" s="13" t="s">
+      <c r="D37" s="13" t="s">
         <v>1072</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>1073</v>
       </c>
       <c r="E37" s="13"/>
       <c r="F37" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G37" s="13"/>
       <c r="H37" s="39"/>
@@ -38808,20 +38805,20 @@
     </row>
     <row r="38" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C38" s="13" t="s">
         <v>1074</v>
       </c>
-      <c r="B38" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C38" s="13" t="s">
+      <c r="D38" s="13" t="s">
         <v>1075</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>1076</v>
       </c>
       <c r="E38" s="13"/>
       <c r="F38" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G38" s="13"/>
       <c r="H38" s="39"/>
@@ -39075,20 +39072,20 @@
     </row>
     <row r="39" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C39" s="13" t="s">
         <v>1077</v>
       </c>
-      <c r="B39" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C39" s="13" t="s">
+      <c r="D39" s="13" t="s">
         <v>1078</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>1079</v>
       </c>
       <c r="E39" s="13"/>
       <c r="F39" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G39" s="13"/>
       <c r="H39" s="39"/>
@@ -39342,19 +39339,19 @@
     </row>
     <row r="40" spans="1:255" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C40" s="13" t="s">
         <v>1080</v>
       </c>
-      <c r="B40" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C40" s="13" t="s">
+      <c r="D40" s="13" t="s">
         <v>1081</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="E40" s="13" t="s">
         <v>1082</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>1083</v>
       </c>
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
@@ -39609,16 +39606,16 @@
     </row>
     <row r="41" spans="1:255" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="13" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C41" s="13" t="s">
         <v>1084</v>
       </c>
-      <c r="B41" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C41" s="13" t="s">
+      <c r="D41" s="13" t="s">
         <v>1085</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>1086</v>
       </c>
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
@@ -39874,16 +39871,16 @@
     </row>
     <row r="42" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C42" s="13" t="s">
         <v>1087</v>
       </c>
-      <c r="B42" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C42" s="13" t="s">
+      <c r="D42" s="13" t="s">
         <v>1088</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>1089</v>
       </c>
       <c r="E42" s="13"/>
       <c r="F42" s="13"/>
@@ -40139,19 +40136,19 @@
     </row>
     <row r="43" spans="1:255" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="13" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C43" s="13" t="s">
         <v>1090</v>
       </c>
-      <c r="B43" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C43" s="13" t="s">
+      <c r="D43" s="13" t="s">
         <v>1091</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="E43" s="13" t="s">
         <v>1092</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>1093</v>
       </c>
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
@@ -40406,19 +40403,19 @@
     </row>
     <row r="44" spans="1:255" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C44" s="13" t="s">
         <v>1094</v>
       </c>
-      <c r="B44" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C44" s="13" t="s">
+      <c r="D44" s="13" t="s">
         <v>1095</v>
       </c>
-      <c r="D44" s="13" t="s">
+      <c r="E44" s="13" t="s">
         <v>1096</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>1097</v>
       </c>
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
@@ -40673,19 +40670,19 @@
     </row>
     <row r="45" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C45" s="13" t="s">
         <v>1098</v>
       </c>
-      <c r="B45" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C45" s="13" t="s">
+      <c r="D45" s="13" t="s">
         <v>1099</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="E45" s="13" t="s">
         <v>1100</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>1101</v>
       </c>
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
@@ -40940,16 +40937,16 @@
     </row>
     <row r="46" spans="1:255" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C46" s="13" t="s">
         <v>1102</v>
       </c>
-      <c r="B46" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C46" s="13" t="s">
+      <c r="D46" s="13" t="s">
         <v>1103</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>1104</v>
       </c>
       <c r="E46" s="13"/>
       <c r="F46" s="13"/>
@@ -41205,16 +41202,16 @@
     </row>
     <row r="47" spans="1:255" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C47" s="13" t="s">
         <v>1105</v>
       </c>
-      <c r="B47" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C47" s="13" t="s">
+      <c r="D47" s="13" t="s">
         <v>1106</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>1107</v>
       </c>
       <c r="E47" s="13"/>
       <c r="F47" s="13"/>
@@ -41470,16 +41467,16 @@
     </row>
     <row r="48" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="13" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C48" s="13" t="s">
         <v>1108</v>
       </c>
-      <c r="B48" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C48" s="13" t="s">
+      <c r="D48" s="13" t="s">
         <v>1109</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>1110</v>
       </c>
       <c r="E48" s="13"/>
       <c r="F48" s="13"/>
@@ -41735,16 +41732,16 @@
     </row>
     <row r="49" spans="1:255" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="13" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C49" s="13" t="s">
         <v>1111</v>
       </c>
-      <c r="B49" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C49" s="13" t="s">
+      <c r="D49" s="13" t="s">
         <v>1112</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>1113</v>
       </c>
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
@@ -42000,16 +41997,16 @@
     </row>
     <row r="50" spans="1:255" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="13" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="C50" s="13" t="s">
         <v>1114</v>
       </c>
-      <c r="B50" s="13" t="s">
-        <v>986</v>
-      </c>
-      <c r="C50" s="13" t="s">
+      <c r="D50" s="13" t="s">
         <v>1115</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>1116</v>
       </c>
       <c r="E50" s="13"/>
       <c r="F50" s="13"/>
@@ -42292,25 +42289,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
+        <v>870</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>871</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>872</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>873</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>874</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>875</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>876</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -42318,17 +42315,17 @@
         <v>503</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>1117</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="13" t="s">
         <v>1118</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>1119</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G2" s="13"/>
     </row>
@@ -42337,17 +42334,17 @@
         <v>506</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C3" s="13" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>1120</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>1121</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G3" s="13"/>
     </row>
@@ -42356,17 +42353,17 @@
         <v>509</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C4" s="13" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>1122</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>1123</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G4" s="13"/>
     </row>
@@ -42375,17 +42372,17 @@
         <v>524</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C5" s="13" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>1124</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>1125</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G5" s="13"/>
     </row>
@@ -42394,17 +42391,17 @@
         <v>512</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C6" s="13" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>1126</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>1127</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G6" s="13"/>
     </row>
@@ -42413,17 +42410,17 @@
         <v>515</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C7" s="13" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>1128</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>1129</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G7" s="13"/>
     </row>
@@ -42432,17 +42429,17 @@
         <v>518</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C8" s="13" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>1130</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>1131</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G8" s="13"/>
     </row>
@@ -42451,17 +42448,17 @@
         <v>521</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C9" s="13" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>1132</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>1133</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G9" s="13"/>
     </row>
@@ -42470,17 +42467,17 @@
         <v>557</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C10" s="13" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>1134</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>1135</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G10" s="13"/>
     </row>
@@ -42489,17 +42486,17 @@
         <v>609</v>
       </c>
       <c r="B11" s="43" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C11" s="43" t="s">
         <v>1136</v>
       </c>
-      <c r="C11" s="43" t="s">
-        <v>1137</v>
-      </c>
       <c r="D11" s="13" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="E11" s="43"/>
       <c r="F11" s="43" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G11" s="43"/>
     </row>
@@ -42508,17 +42505,17 @@
         <v>530</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C12" s="13" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>1138</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>1139</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G12" s="13"/>
     </row>
@@ -42527,17 +42524,17 @@
         <v>533</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C13" s="13" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>1140</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>1141</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G13" s="13"/>
     </row>
@@ -42546,17 +42543,17 @@
         <v>536</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C14" s="13" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>1142</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>1143</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G14" s="13"/>
     </row>
@@ -42565,17 +42562,17 @@
         <v>539</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>572</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G15" s="13"/>
     </row>
@@ -42584,22 +42581,22 @@
         <v>575</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C16" s="13" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>1145</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="E16" s="13" t="s">
         <v>1146</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="F16" s="13" t="s">
+        <v>880</v>
+      </c>
+      <c r="G16" s="13" t="s">
         <v>1147</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>881</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>1148</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -42607,22 +42604,22 @@
         <v>578</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C17" s="13" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>1149</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="E17" s="13" t="s">
         <v>1150</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="F17" s="13" t="s">
+        <v>880</v>
+      </c>
+      <c r="G17" s="13" t="s">
         <v>1151</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>881</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>1152</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -42630,17 +42627,17 @@
         <v>612</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>611</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G18" s="13"/>
     </row>
@@ -42649,17 +42646,17 @@
         <v>615</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>614</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G19" s="13"/>
     </row>
@@ -42668,17 +42665,17 @@
         <v>618</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C20" s="13" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D20" s="13" t="s">
         <v>1155</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>1156</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G20" s="13"/>
     </row>
@@ -42687,36 +42684,36 @@
         <v>621</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C21" s="13" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D21" s="13" t="s">
         <v>1157</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>1158</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G21" s="13"/>
     </row>
     <row r="22" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>1159</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>1117</v>
-      </c>
-      <c r="C22" s="13" t="s">
+      <c r="D22" s="13" t="s">
         <v>1160</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>1161</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G22" s="13"/>
     </row>
@@ -42725,10 +42722,10 @@
         <v>562</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>561</v>
@@ -42739,16 +42736,16 @@
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="43" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C24" s="43" t="s">
         <v>1163</v>
       </c>
-      <c r="B24" s="43" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C24" s="43" t="s">
+      <c r="D24" s="43" t="s">
         <v>1164</v>
-      </c>
-      <c r="D24" s="43" t="s">
-        <v>1165</v>
       </c>
       <c r="E24" s="43"/>
       <c r="F24" s="43"/>
@@ -42759,13 +42756,13 @@
         <v>527</v>
       </c>
       <c r="B25" s="43" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="C25" s="43" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D25" s="43" t="s">
         <v>1166</v>
-      </c>
-      <c r="D25" s="43" t="s">
-        <v>1167</v>
       </c>
       <c r="E25" s="43"/>
       <c r="F25" s="43"/>
@@ -42773,16 +42770,16 @@
     </row>
     <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="43" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B26" s="43" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C26" s="43" t="s">
         <v>1168</v>
       </c>
-      <c r="B26" s="43" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C26" s="43" t="s">
+      <c r="D26" s="43" t="s">
         <v>1169</v>
-      </c>
-      <c r="D26" s="43" t="s">
-        <v>1170</v>
       </c>
       <c r="E26" s="43"/>
       <c r="F26" s="43"/>
@@ -42790,16 +42787,16 @@
     </row>
     <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="43" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B27" s="43" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C27" s="43" t="s">
         <v>1171</v>
       </c>
-      <c r="B27" s="43" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C27" s="43" t="s">
+      <c r="D27" s="43" t="s">
         <v>1172</v>
-      </c>
-      <c r="D27" s="43" t="s">
-        <v>1173</v>
       </c>
       <c r="E27" s="43"/>
       <c r="F27" s="43"/>
@@ -42807,16 +42804,16 @@
     </row>
     <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="43" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B28" s="43" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C28" s="43" t="s">
         <v>1174</v>
       </c>
-      <c r="B28" s="43" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C28" s="43" t="s">
+      <c r="D28" s="43" t="s">
         <v>1175</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>1176</v>
       </c>
       <c r="E28" s="43"/>
       <c r="F28" s="43"/>
@@ -42824,16 +42821,16 @@
     </row>
     <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="43" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B29" s="43" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C29" s="43" t="s">
         <v>1177</v>
       </c>
-      <c r="B29" s="43" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C29" s="43" t="s">
+      <c r="D29" s="43" t="s">
         <v>1178</v>
-      </c>
-      <c r="D29" s="43" t="s">
-        <v>1179</v>
       </c>
       <c r="E29" s="43"/>
       <c r="F29" s="43"/>
@@ -42841,16 +42838,16 @@
     </row>
     <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="43" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B30" s="43" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C30" s="43" t="s">
         <v>1180</v>
       </c>
-      <c r="B30" s="43" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C30" s="43" t="s">
+      <c r="D30" s="43" t="s">
         <v>1181</v>
-      </c>
-      <c r="D30" s="43" t="s">
-        <v>1182</v>
       </c>
       <c r="E30" s="43"/>
       <c r="F30" s="43"/>
@@ -42883,81 +42880,81 @@
   <sheetData>
     <row r="1" spans="1:7" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
+        <v>870</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>871</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>872</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>873</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>874</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>875</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>876</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>1183</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="C2" s="13" t="s">
         <v>1184</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="13" t="s">
         <v>1185</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>1186</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>1187</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>1184</v>
-      </c>
-      <c r="C3" s="13" t="s">
+      <c r="D3" s="13" t="s">
         <v>1188</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>1189</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>1190</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>1184</v>
-      </c>
-      <c r="C4" s="13" t="s">
+      <c r="D4" s="13" t="s">
         <v>1191</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>1192</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G4" s="13"/>
     </row>
@@ -43028,7 +43025,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:IU29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -43044,25 +43043,25 @@
   <sheetData>
     <row r="1" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
+        <v>870</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>871</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>872</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>873</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>874</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>875</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>876</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>877</v>
       </c>
       <c r="H1" s="48"/>
       <c r="I1" s="49"/>
@@ -43315,20 +43314,20 @@
     </row>
     <row r="2" spans="1:255" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>1193</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="C2" s="13" t="s">
         <v>1194</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="13" t="s">
         <v>1195</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>1196</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="39"/>
@@ -43582,20 +43581,20 @@
     </row>
     <row r="3" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C3" s="13" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>1197</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>1198</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="39"/>
@@ -43852,17 +43851,17 @@
         <v>660</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C4" s="13" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>1199</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>1200</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="39"/>
@@ -44119,17 +44118,17 @@
         <v>663</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C5" s="13" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>1201</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>1202</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="39"/>
@@ -44386,17 +44385,17 @@
         <v>666</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C6" s="13" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>1203</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>1204</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="39"/>
@@ -44653,22 +44652,22 @@
         <v>669</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C7" s="13" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>1205</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="E7" s="13" t="s">
         <v>1206</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="F7" s="13" t="s">
+        <v>880</v>
+      </c>
+      <c r="G7" s="13" t="s">
         <v>1207</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>881</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>1208</v>
       </c>
       <c r="H7" s="39"/>
       <c r="I7" s="30"/>
@@ -44924,17 +44923,17 @@
         <v>674</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C8" s="13" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>1209</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>1210</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="39"/>
@@ -45191,17 +45190,17 @@
         <v>677</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C9" s="13" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>1211</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>1212</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="39"/>
@@ -45455,20 +45454,20 @@
     </row>
     <row r="10" spans="1:255" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C10" s="13" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>1213</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>1214</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="39"/>
@@ -45722,20 +45721,20 @@
     </row>
     <row r="11" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>1215</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>1194</v>
-      </c>
-      <c r="C11" s="13" t="s">
+      <c r="D11" s="13" t="s">
         <v>1216</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>1217</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="39"/>
@@ -45989,20 +45988,20 @@
     </row>
     <row r="12" spans="1:255" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>682</v>
+        <v>733</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="39"/>
@@ -46256,20 +46255,20 @@
     </row>
     <row r="13" spans="1:255" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>1219</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>1194</v>
-      </c>
-      <c r="C13" s="13" t="s">
+      <c r="D13" s="13" t="s">
         <v>1220</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>1221</v>
       </c>
       <c r="E13" s="54"/>
       <c r="F13" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="39"/>
@@ -46523,23 +46522,23 @@
     </row>
     <row r="14" spans="1:255" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C14" s="13" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>1222</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>1223</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="H14" s="39"/>
       <c r="I14" s="30"/>
@@ -46792,20 +46791,20 @@
     </row>
     <row r="15" spans="1:255" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C15" s="13" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>1225</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>1226</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="39"/>
@@ -47059,20 +47058,20 @@
     </row>
     <row r="16" spans="1:255" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C16" s="13" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>1227</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>1228</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="39"/>
@@ -47326,20 +47325,20 @@
     </row>
     <row r="17" spans="1:255" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C17" s="13" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>1229</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>1230</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="39"/>
@@ -47593,20 +47592,20 @@
     </row>
     <row r="18" spans="1:255" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C18" s="13" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>1231</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>1232</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="39"/>
@@ -47860,25 +47859,25 @@
     </row>
     <row r="19" spans="1:255" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>1233</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>1194</v>
-      </c>
-      <c r="C19" s="13" t="s">
+      <c r="D19" s="13" t="s">
         <v>1234</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="E19" s="13" t="s">
         <v>1235</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="F19" s="13" t="s">
+        <v>880</v>
+      </c>
+      <c r="G19" s="13" t="s">
         <v>1236</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>881</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>1237</v>
       </c>
       <c r="H19" s="39"/>
       <c r="I19" s="30"/>
@@ -48131,20 +48130,20 @@
     </row>
     <row r="20" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C20" s="13" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D20" s="13" t="s">
         <v>1238</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>1239</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="39"/>
@@ -48398,25 +48397,25 @@
     </row>
     <row r="21" spans="1:255" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C21" s="13" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D21" s="13" t="s">
         <v>1240</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="E21" s="13" t="s">
         <v>1241</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="F21" s="13" t="s">
+        <v>880</v>
+      </c>
+      <c r="G21" s="13" t="s">
         <v>1242</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>881</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>1243</v>
       </c>
       <c r="H21" s="39"/>
       <c r="I21" s="30"/>
@@ -48669,25 +48668,25 @@
     </row>
     <row r="22" spans="1:255" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>1244</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>1194</v>
-      </c>
-      <c r="C22" s="13" t="s">
+      <c r="D22" s="13" t="s">
         <v>1245</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="E22" s="13" t="s">
         <v>1246</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="F22" s="13" t="s">
+        <v>896</v>
+      </c>
+      <c r="G22" s="13" t="s">
         <v>1247</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>897</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>1248</v>
       </c>
       <c r="H22" s="39"/>
       <c r="I22" s="30"/>
@@ -48940,16 +48939,16 @@
     </row>
     <row r="23" spans="1:255" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
@@ -49208,13 +49207,13 @@
         <v>680</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
@@ -49470,19 +49469,19 @@
     </row>
     <row r="25" spans="1:255" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C25" s="13" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>700</v>
+      </c>
+      <c r="E25" s="13" t="s">
         <v>1251</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>701</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>1252</v>
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
@@ -49737,16 +49736,16 @@
     </row>
     <row r="26" spans="1:255" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
@@ -50002,16 +50001,16 @@
     </row>
     <row r="27" spans="1:255" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
@@ -50267,23 +50266,23 @@
     </row>
     <row r="28" spans="1:255" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F28" s="13"/>
       <c r="G28" s="13" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="H28" s="39"/>
       <c r="I28" s="30"/>
@@ -50536,16 +50535,16 @@
     </row>
     <row r="29" spans="1:255" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C29" s="13" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D29" s="13" t="s">
         <v>1257</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>1258</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
@@ -50827,25 +50826,25 @@
   <sheetData>
     <row r="1" spans="1:255" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
+        <v>870</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>871</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>872</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>873</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>874</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>875</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>876</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>877</v>
       </c>
       <c r="H1" s="57"/>
       <c r="I1" s="58"/>
@@ -51101,20 +51100,20 @@
         <v>293</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>1259</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="13" t="s">
         <v>1260</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>1261</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="H2" s="59"/>
       <c r="I2" s="60"/>
@@ -51367,22 +51366,22 @@
     </row>
     <row r="3" spans="1:255" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>1263</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>1259</v>
-      </c>
-      <c r="C3" s="13" t="s">
+      <c r="D3" s="13" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>1264</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>1261</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>1265</v>
-      </c>
       <c r="F3" s="13" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="59"/>
@@ -51636,22 +51635,22 @@
     </row>
     <row r="4" spans="1:255" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>1266</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>1259</v>
-      </c>
-      <c r="C4" s="13" t="s">
+      <c r="D4" s="13" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>1267</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>1261</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>1268</v>
-      </c>
       <c r="F4" s="13" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="59"/>

--- a/conformancelib/testdata/PIV-I-GSA_MSO_Cards.xlsx
+++ b/conformancelib/testdata/PIV-I-GSA_MSO_Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\bf7450\git\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F431A46B-B22B-4137-B769-1F8C871CD7AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B804AC3-2EBB-4B2D-97DC-B57A6CE40838}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps Overview" sheetId="1" r:id="rId1"/>
@@ -3752,9 +3752,6 @@
     <t>Confirm id-PIV-cardAuth exists in extendedKeyUsage extension and does not assert any other OIDs</t>
   </si>
   <si>
-    <t>CARD_HOLDER_UNIQUE_IDENTIFIER_OID:2.16.840.1.101.3.6.7,X509_CERTIFICATE_FOR_CARD_AUTHENTICATION_OID:2.16.840.1.101.3.6.7</t>
-  </si>
-  <si>
     <t>Card Auth id-PIV-cardAuth EKU keyPurposeID OID</t>
   </si>
   <si>
@@ -3831,6 +3828,9 @@
   </si>
   <si>
     <t>CAT:SLEEPY, DOG:HUNGRY, ELEPHANT:SAD</t>
+  </si>
+  <si>
+    <t>X509_CERTIFICATE_FOR_CARD_AUTHENTICATION_OID:2.16.840.1.101.3.6.8,CARD_HOLDER_UNIQUE_IDENTIFIER_OID:2.16.840.1.101.3.8.7</t>
   </si>
 </sst>
 </file>
@@ -3840,7 +3840,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -3872,6 +3872,11 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -3912,7 +3917,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -4269,11 +4274,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4446,6 +4466,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -43025,8 +43048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:IU29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -48408,14 +48431,14 @@
       <c r="D21" s="13" t="s">
         <v>1240</v>
       </c>
-      <c r="E21" s="13" t="s">
-        <v>1241</v>
+      <c r="E21" s="64" t="s">
+        <v>1267</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>880</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="H21" s="39"/>
       <c r="I21" s="30"/>
@@ -48668,25 +48691,25 @@
     </row>
     <row r="22" spans="1:255" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B22" s="13" t="s">
         <v>1193</v>
       </c>
       <c r="C22" s="13" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D22" s="13" t="s">
         <v>1244</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="E22" s="13" t="s">
         <v>1245</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>1246</v>
       </c>
       <c r="F22" s="13" t="s">
         <v>896</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="H22" s="39"/>
       <c r="I22" s="30"/>
@@ -48945,7 +48968,7 @@
         <v>1193</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>706</v>
@@ -49210,7 +49233,7 @@
         <v>1193</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>711</v>
@@ -49475,13 +49498,13 @@
         <v>1193</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>700</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
@@ -49742,7 +49765,7 @@
         <v>1193</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="D26" s="13" t="s">
         <v>713</v>
@@ -50007,7 +50030,7 @@
         <v>1193</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>851</v>
@@ -50272,7 +50295,7 @@
         <v>1193</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>686</v>
@@ -50282,7 +50305,7 @@
       </c>
       <c r="F28" s="13"/>
       <c r="G28" s="13" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="H28" s="39"/>
       <c r="I28" s="30"/>
@@ -50541,10 +50564,10 @@
         <v>1193</v>
       </c>
       <c r="C29" s="13" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D29" s="13" t="s">
         <v>1256</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>1257</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
@@ -51100,20 +51123,20 @@
         <v>293</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>1258</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="13" t="s">
         <v>1259</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>1260</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="13" t="s">
         <v>880</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="H2" s="59"/>
       <c r="I2" s="60"/>
@@ -51366,19 +51389,19 @@
     </row>
     <row r="3" spans="1:255" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>1262</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>1258</v>
-      </c>
-      <c r="C3" s="13" t="s">
+      <c r="D3" s="13" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>1263</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>1260</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>1264</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>896</v>
@@ -51635,19 +51658,19 @@
     </row>
     <row r="4" spans="1:255" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>1265</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>1258</v>
-      </c>
-      <c r="C4" s="13" t="s">
+      <c r="D4" s="13" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>1266</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>1260</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>1267</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>896</v>

--- a/conformancelib/testdata/PIV-I-GSA_MSO_Cards.xlsx
+++ b/conformancelib/testdata/PIV-I-GSA_MSO_Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\bf7450\git\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B804AC3-2EBB-4B2D-97DC-B57A6CE40838}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E7FC2F-E214-4B72-98EE-599FB210BAAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps Overview" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2977" uniqueCount="1268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2977" uniqueCount="1269">
   <si>
     <t>Document</t>
   </si>
@@ -3831,6 +3831,9 @@
   </si>
   <si>
     <t>X509_CERTIFICATE_FOR_CARD_AUTHENTICATION_OID:2.16.840.1.101.3.6.8,CARD_HOLDER_UNIQUE_IDENTIFIER_OID:2.16.840.1.101.3.8.7</t>
+  </si>
+  <si>
+    <t>Message digest from signed attributes bag matches the digest over Facial Imagbe biometric data (excluding contents of digital signature field)</t>
   </si>
 </sst>
 </file>
@@ -5633,8 +5636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV473"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A354" workbookViewId="0">
-      <selection activeCell="C356" sqref="C356"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A294" workbookViewId="0">
+      <selection activeCell="C306" sqref="C306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10916,7 +10919,7 @@
         <v>594</v>
       </c>
       <c r="C306" s="8" t="s">
-        <v>566</v>
+        <v>1268</v>
       </c>
       <c r="D306" s="9" t="s">
         <v>530</v>
@@ -43048,7 +43051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:IU29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C13" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C13" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>

--- a/conformancelib/testdata/PIV-I-GSA_MSO_Cards.xlsx
+++ b/conformancelib/testdata/PIV-I-GSA_MSO_Cards.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\bf7450\git\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E7FC2F-E214-4B72-98EE-599FB210BAAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB1C73E-D490-4B4E-97F1-62FE0C74DCA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2977" uniqueCount="1269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2982" uniqueCount="1272">
   <si>
     <t>Document</t>
   </si>
@@ -3834,6 +3834,15 @@
   </si>
   <si>
     <t>Message digest from signed attributes bag matches the digest over Facial Imagbe biometric data (excluding contents of digital signature field)</t>
+  </si>
+  <si>
+    <t>digestAlgorithm field value of the SignerInfo is in accordance with Table 3-2 of SP 800-78</t>
+  </si>
+  <si>
+    <t>10.4.2.8</t>
+  </si>
+  <si>
+    <t>The signature in the SignerInfo corresponds to the signed security object and that it is it signed with the certificate that is used to sign the CHUID.</t>
   </si>
 </sst>
 </file>
@@ -3843,7 +3852,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -3854,35 +3863,51 @@
       <sz val="12"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3919,8 +3944,26 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="31">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -4292,11 +4335,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4472,6 +4528,33 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5634,10 +5717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IV473"/>
+  <dimension ref="A1:IV474"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A294" workbookViewId="0">
-      <selection activeCell="C306" sqref="C306"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A310" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C322" sqref="C322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11020,10 +11103,10 @@
       </c>
     </row>
     <row r="312" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A312" s="8" t="s">
+      <c r="A312" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B312" s="8" t="s">
+      <c r="B312" s="65" t="s">
         <v>600</v>
       </c>
       <c r="C312" s="7" t="s">
@@ -11034,10 +11117,10 @@
       <c r="F312" s="11"/>
     </row>
     <row r="313" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A313" s="8" t="s">
+      <c r="A313" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B313" s="8" t="s">
+      <c r="B313" s="65" t="s">
         <v>601</v>
       </c>
       <c r="C313" s="11" t="s">
@@ -11066,10 +11149,10 @@
       </c>
     </row>
     <row r="315" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A315" s="8" t="s">
+      <c r="A315" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B315" s="8" t="s">
+      <c r="B315" s="65" t="s">
         <v>606</v>
       </c>
       <c r="C315" s="11" t="s">
@@ -11079,190 +11162,190 @@
       <c r="E315" s="11"/>
       <c r="F315" s="11"/>
     </row>
-    <row r="316" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A316" s="8" t="s">
+    <row r="316" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A316" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B316" s="8" t="s">
+      <c r="B316" s="68" t="s">
         <v>607</v>
       </c>
-      <c r="C316" s="8" t="s">
+      <c r="C316" s="68" t="s">
         <v>608</v>
       </c>
-      <c r="D316" s="9" t="s">
+      <c r="D316" s="68" t="s">
         <v>609</v>
       </c>
-      <c r="E316" s="18"/>
-      <c r="F316" s="8" t="s">
+      <c r="E316" s="69"/>
+      <c r="F316" s="68" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="317" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A317" s="8" t="s">
+    <row r="317" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A317" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B317" s="8" t="s">
+      <c r="B317" s="68" t="s">
         <v>610</v>
       </c>
-      <c r="C317" s="8" t="s">
+      <c r="C317" s="70" t="s">
         <v>611</v>
       </c>
-      <c r="D317" s="9" t="s">
+      <c r="D317" s="68" t="s">
         <v>612</v>
       </c>
-      <c r="E317" s="8"/>
-      <c r="F317" s="8" t="s">
+      <c r="E317" s="68"/>
+      <c r="F317" s="68" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="318" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A318" s="8" t="s">
+    <row r="318" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A318" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B318" s="8" t="s">
+      <c r="B318" s="68" t="s">
         <v>613</v>
       </c>
-      <c r="C318" s="8" t="s">
+      <c r="C318" s="70" t="s">
         <v>614</v>
       </c>
-      <c r="D318" s="9" t="s">
+      <c r="D318" s="68" t="s">
         <v>615</v>
       </c>
-      <c r="E318" s="8"/>
-      <c r="F318" s="8" t="s">
+      <c r="E318" s="68"/>
+      <c r="F318" s="68" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="319" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A319" s="8" t="s">
+    <row r="319" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+      <c r="A319" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B319" s="8" t="s">
+      <c r="B319" s="68" t="s">
         <v>616</v>
       </c>
-      <c r="C319" s="8" t="s">
+      <c r="C319" s="70" t="s">
         <v>617</v>
       </c>
-      <c r="D319" s="9" t="s">
+      <c r="D319" s="68" t="s">
         <v>618</v>
       </c>
-      <c r="E319" s="8"/>
-      <c r="F319" s="8" t="s">
+      <c r="E319" s="68"/>
+      <c r="F319" s="68" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="320" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A320" s="8" t="s">
+    <row r="320" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A320" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B320" s="8" t="s">
+      <c r="B320" s="68" t="s">
         <v>619</v>
       </c>
-      <c r="C320" s="8" t="s">
+      <c r="C320" s="70" t="s">
         <v>620</v>
       </c>
-      <c r="D320" s="9" t="s">
+      <c r="D320" s="68" t="s">
         <v>621</v>
       </c>
-      <c r="E320" s="8"/>
-      <c r="F320" s="8" t="s">
+      <c r="E320" s="68"/>
+      <c r="F320" s="68" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="321" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A321" s="8" t="s">
+    <row r="321" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+      <c r="A321" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B321" s="8" t="s">
+      <c r="B321" s="68" t="s">
         <v>622</v>
       </c>
-      <c r="C321" s="8" t="s">
-        <v>592</v>
-      </c>
-      <c r="D321" s="9" t="s">
+      <c r="C321" s="68" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D321" s="68" t="s">
         <v>562</v>
       </c>
-      <c r="E321" s="8"/>
-      <c r="F321" s="8" t="s">
+      <c r="E321" s="68"/>
+      <c r="F321" s="68" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="322" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A322" s="8" t="s">
+    <row r="322" spans="1:6" ht="60" x14ac:dyDescent="0.3">
+      <c r="A322" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B322" s="8" t="s">
+      <c r="B322" s="68" t="s">
         <v>623</v>
       </c>
-      <c r="C322" s="8" t="s">
+      <c r="C322" s="70" t="s">
         <v>624</v>
       </c>
-      <c r="D322" s="9" t="s">
+      <c r="D322" s="68" t="s">
         <v>536</v>
       </c>
-      <c r="E322" s="8"/>
-      <c r="F322" s="8" t="s">
+      <c r="E322" s="68"/>
+      <c r="F322" s="68" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="323" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A323" s="8" t="s">
+    <row r="323" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+      <c r="A323" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B323" s="8" t="s">
+      <c r="B323" s="72" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C323" s="73" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D323" s="72" t="s">
+        <v>539</v>
+      </c>
+      <c r="E323" s="72"/>
+      <c r="F323" s="72" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A324" s="65" t="s">
+        <v>6</v>
+      </c>
+      <c r="B324" s="65" t="s">
         <v>625</v>
       </c>
-      <c r="C323" s="22" t="s">
+      <c r="C324" s="66" t="s">
         <v>626</v>
-      </c>
-      <c r="D323" s="12"/>
-      <c r="E323" s="11"/>
-      <c r="F323" s="11"/>
-    </row>
-    <row r="324" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A324" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B324" s="8" t="s">
-        <v>627</v>
-      </c>
-      <c r="C324" s="23" t="s">
-        <v>500</v>
       </c>
       <c r="D324" s="12"/>
       <c r="E324" s="11"/>
       <c r="F324" s="11"/>
     </row>
-    <row r="325" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A325" s="8" t="s">
+    <row r="325" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A325" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B325" s="8" t="s">
-        <v>628</v>
-      </c>
-      <c r="C325" s="8" t="s">
-        <v>544</v>
-      </c>
-      <c r="D325" s="9" t="s">
-        <v>503</v>
-      </c>
-      <c r="E325" s="8"/>
-      <c r="F325" s="8" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="326" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B325" s="65" t="s">
+        <v>627</v>
+      </c>
+      <c r="C325" s="65" t="s">
+        <v>500</v>
+      </c>
+      <c r="D325" s="12"/>
+      <c r="E325" s="11"/>
+      <c r="F325" s="11"/>
+    </row>
+    <row r="326" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B326" s="8" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C326" s="8" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D326" s="9" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="E326" s="8"/>
       <c r="F326" s="8" t="s">
@@ -11274,13 +11357,13 @@
         <v>6</v>
       </c>
       <c r="B327" s="8" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C327" s="8" t="s">
-        <v>585</v>
+        <v>546</v>
       </c>
       <c r="D327" s="9" t="s">
-        <v>524</v>
+        <v>506</v>
       </c>
       <c r="E327" s="8"/>
       <c r="F327" s="8" t="s">
@@ -11292,67 +11375,67 @@
         <v>6</v>
       </c>
       <c r="B328" s="8" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C328" s="8" t="s">
-        <v>550</v>
+        <v>585</v>
       </c>
       <c r="D328" s="9" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="E328" s="8"/>
       <c r="F328" s="8" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="329" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B329" s="8" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C329" s="8" t="s">
-        <v>514</v>
+        <v>550</v>
       </c>
       <c r="D329" s="9" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E329" s="8"/>
       <c r="F329" s="8" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="330" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B330" s="8" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C330" s="8" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D330" s="9" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="E330" s="8"/>
       <c r="F330" s="8" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="331" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B331" s="8" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C331" s="8" t="s">
-        <v>554</v>
+        <v>517</v>
       </c>
       <c r="D331" s="9" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E331" s="8"/>
       <c r="F331" s="8" t="s">
@@ -11364,121 +11447,121 @@
         <v>6</v>
       </c>
       <c r="B332" s="8" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C332" s="8" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D332" s="9" t="s">
-        <v>557</v>
+        <v>521</v>
       </c>
       <c r="E332" s="8"/>
       <c r="F332" s="8" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="333" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B333" s="8" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C333" s="8" t="s">
-        <v>592</v>
+        <v>556</v>
       </c>
       <c r="D333" s="9" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="E333" s="8"/>
       <c r="F333" s="8" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="334" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B334" s="8" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C334" s="8" t="s">
-        <v>564</v>
+        <v>592</v>
       </c>
       <c r="D334" s="9" t="s">
-        <v>527</v>
+        <v>562</v>
       </c>
       <c r="E334" s="8"/>
       <c r="F334" s="8" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="335" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B335" s="8" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C335" s="8" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D335" s="9" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="E335" s="8"/>
       <c r="F335" s="8" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="336" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B336" s="8" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C336" s="8" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D336" s="9" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="E336" s="8"/>
       <c r="F336" s="8" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="337" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B337" s="8" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C337" s="8" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D337" s="9" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="E337" s="8"/>
       <c r="F337" s="8" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="338" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B338" s="8" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C338" s="8" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D338" s="9" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="E338" s="8"/>
       <c r="F338" s="8" t="s">
@@ -11490,31 +11573,31 @@
         <v>6</v>
       </c>
       <c r="B339" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C339" s="8" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D339" s="9" t="s">
-        <v>575</v>
+        <v>539</v>
       </c>
       <c r="E339" s="8"/>
       <c r="F339" s="8" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="340" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B340" s="8" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C340" s="8" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D340" s="9" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="E340" s="8"/>
       <c r="F340" s="8" t="s">
@@ -11525,25 +11608,29 @@
       <c r="A341" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B341" s="4" t="s">
-        <v>644</v>
-      </c>
-      <c r="C341" s="24" t="s">
-        <v>645</v>
-      </c>
-      <c r="D341" s="12"/>
-      <c r="E341" s="11"/>
-      <c r="F341" s="11"/>
+      <c r="B341" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="C341" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="D341" s="9" t="s">
+        <v>578</v>
+      </c>
+      <c r="E341" s="8"/>
+      <c r="F341" s="8" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="342" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B342" s="8" t="s">
-        <v>646</v>
-      </c>
-      <c r="C342" s="22" t="s">
-        <v>647</v>
+      <c r="B342" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="C342" s="24" t="s">
+        <v>645</v>
       </c>
       <c r="D342" s="12"/>
       <c r="E342" s="11"/>
@@ -11554,60 +11641,56 @@
         <v>6</v>
       </c>
       <c r="B343" s="8" t="s">
-        <v>648</v>
-      </c>
-      <c r="C343" s="23" t="s">
-        <v>649</v>
+        <v>646</v>
+      </c>
+      <c r="C343" s="22" t="s">
+        <v>647</v>
       </c>
       <c r="D343" s="12"/>
       <c r="E343" s="11"/>
       <c r="F343" s="11"/>
     </row>
-    <row r="344" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B344" s="8" t="s">
-        <v>650</v>
-      </c>
-      <c r="C344" s="8" t="s">
-        <v>651</v>
-      </c>
-      <c r="D344" s="10">
-        <v>78.3</v>
-      </c>
-      <c r="E344" s="8"/>
-      <c r="F344" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>648</v>
+      </c>
+      <c r="C344" s="23" t="s">
+        <v>649</v>
+      </c>
+      <c r="D344" s="12"/>
+      <c r="E344" s="11"/>
+      <c r="F344" s="11"/>
+    </row>
+    <row r="345" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B345" s="8" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C345" s="8" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D345" s="10">
-        <v>78.099999999999994</v>
+        <v>78.3</v>
       </c>
       <c r="E345" s="8"/>
       <c r="F345" s="8" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="346" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B346" s="8" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C346" s="8" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D346" s="10">
         <v>78.099999999999994</v>
@@ -11622,45 +11705,45 @@
         <v>6</v>
       </c>
       <c r="B347" s="8" t="s">
-        <v>656</v>
-      </c>
-      <c r="C347" s="11" t="s">
-        <v>657</v>
-      </c>
-      <c r="D347" s="12"/>
-      <c r="E347" s="11"/>
-      <c r="F347" s="11"/>
+        <v>654</v>
+      </c>
+      <c r="C347" s="8" t="s">
+        <v>655</v>
+      </c>
+      <c r="D347" s="10">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E347" s="8"/>
+      <c r="F347" s="8" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="348" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B348" s="8" t="s">
-        <v>658</v>
-      </c>
-      <c r="C348" s="8" t="s">
-        <v>659</v>
-      </c>
-      <c r="D348" s="9" t="s">
-        <v>660</v>
-      </c>
-      <c r="E348" s="8"/>
-      <c r="F348" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="349" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>656</v>
+      </c>
+      <c r="C348" s="11" t="s">
+        <v>657</v>
+      </c>
+      <c r="D348" s="12"/>
+      <c r="E348" s="11"/>
+      <c r="F348" s="11"/>
+    </row>
+    <row r="349" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B349" s="8" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="C349" s="8" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="D349" s="9" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E349" s="8"/>
       <c r="F349" s="8" t="s">
@@ -11672,81 +11755,81 @@
         <v>6</v>
       </c>
       <c r="B350" s="8" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="C350" s="8" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D350" s="9" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="E350" s="8"/>
       <c r="F350" s="8" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="351" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B351" s="8" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="C351" s="8" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="D351" s="9" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="E351" s="8"/>
       <c r="F351" s="8" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="352" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B352" s="8" t="s">
-        <v>670</v>
-      </c>
-      <c r="C352" s="11" t="s">
-        <v>671</v>
-      </c>
-      <c r="D352" s="12"/>
-      <c r="E352" s="11"/>
-      <c r="F352" s="11"/>
-    </row>
-    <row r="353" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>667</v>
+      </c>
+      <c r="C352" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="D352" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="E352" s="8"/>
+      <c r="F352" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B353" s="8" t="s">
-        <v>672</v>
-      </c>
-      <c r="C353" s="8" t="s">
-        <v>673</v>
-      </c>
-      <c r="D353" s="9" t="s">
-        <v>674</v>
-      </c>
-      <c r="E353" s="8"/>
-      <c r="F353" s="8" t="s">
-        <v>123</v>
-      </c>
+        <v>670</v>
+      </c>
+      <c r="C353" s="11" t="s">
+        <v>671</v>
+      </c>
+      <c r="D353" s="12"/>
+      <c r="E353" s="11"/>
+      <c r="F353" s="11"/>
     </row>
     <row r="354" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B354" s="8" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C354" s="8" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="D354" s="9" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="E354" s="8"/>
       <c r="F354" s="8" t="s">
@@ -11758,31 +11841,31 @@
         <v>6</v>
       </c>
       <c r="B355" s="8" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C355" s="8" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D355" s="9" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="E355" s="8"/>
       <c r="F355" s="8" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="356" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B356" s="8" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C356" s="8" t="s">
-        <v>733</v>
+        <v>679</v>
       </c>
       <c r="D356" s="9" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E356" s="8"/>
       <c r="F356" s="8" t="s">
@@ -11794,45 +11877,45 @@
         <v>6</v>
       </c>
       <c r="B357" s="8" t="s">
-        <v>683</v>
-      </c>
-      <c r="C357" s="11" t="s">
-        <v>684</v>
-      </c>
-      <c r="D357" s="12"/>
-      <c r="E357" s="11"/>
-      <c r="F357" s="11"/>
-    </row>
-    <row r="358" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+        <v>681</v>
+      </c>
+      <c r="C357" s="8" t="s">
+        <v>733</v>
+      </c>
+      <c r="D357" s="9" t="s">
+        <v>682</v>
+      </c>
+      <c r="E357" s="8"/>
+      <c r="F357" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B358" s="8" t="s">
-        <v>685</v>
-      </c>
-      <c r="C358" s="8" t="s">
-        <v>686</v>
-      </c>
-      <c r="D358" s="9" t="s">
-        <v>687</v>
-      </c>
-      <c r="E358" s="8"/>
-      <c r="F358" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="359" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>683</v>
+      </c>
+      <c r="C358" s="11" t="s">
+        <v>684</v>
+      </c>
+      <c r="D358" s="12"/>
+      <c r="E358" s="11"/>
+      <c r="F358" s="11"/>
+    </row>
+    <row r="359" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B359" s="8" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C359" s="8" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="D359" s="9" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="E359" s="8"/>
       <c r="F359" s="8" t="s">
@@ -11844,13 +11927,13 @@
         <v>6</v>
       </c>
       <c r="B360" s="8" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C360" s="8" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="D360" s="9" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="E360" s="8"/>
       <c r="F360" s="8" t="s">
@@ -11862,45 +11945,45 @@
         <v>6</v>
       </c>
       <c r="B361" s="8" t="s">
-        <v>694</v>
-      </c>
-      <c r="C361" s="11" t="s">
-        <v>695</v>
-      </c>
-      <c r="D361" s="12"/>
-      <c r="E361" s="11"/>
-      <c r="F361" s="11"/>
+        <v>691</v>
+      </c>
+      <c r="C361" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="D361" s="9" t="s">
+        <v>693</v>
+      </c>
+      <c r="E361" s="8"/>
+      <c r="F361" s="8" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="362" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B362" s="8" t="s">
-        <v>696</v>
-      </c>
-      <c r="C362" s="8" t="s">
-        <v>697</v>
-      </c>
-      <c r="D362" s="9" t="s">
-        <v>698</v>
-      </c>
-      <c r="E362" s="8"/>
-      <c r="F362" s="8" t="s">
-        <v>123</v>
-      </c>
+        <v>694</v>
+      </c>
+      <c r="C362" s="11" t="s">
+        <v>695</v>
+      </c>
+      <c r="D362" s="12"/>
+      <c r="E362" s="11"/>
+      <c r="F362" s="11"/>
     </row>
     <row r="363" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B363" s="8" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="C363" s="8" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="D363" s="9" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="E363" s="8"/>
       <c r="F363" s="8" t="s">
@@ -11912,65 +11995,65 @@
         <v>6</v>
       </c>
       <c r="B364" s="8" t="s">
-        <v>702</v>
-      </c>
-      <c r="C364" s="11" t="s">
-        <v>703</v>
-      </c>
-      <c r="D364" s="12"/>
-      <c r="E364" s="11"/>
-      <c r="F364" s="11"/>
-    </row>
-    <row r="365" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>699</v>
+      </c>
+      <c r="C364" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="D364" s="9" t="s">
+        <v>701</v>
+      </c>
+      <c r="E364" s="8"/>
+      <c r="F364" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B365" s="8" t="s">
-        <v>704</v>
-      </c>
-      <c r="C365" s="8" t="s">
-        <v>673</v>
-      </c>
-      <c r="D365" s="9" t="s">
-        <v>674</v>
-      </c>
-      <c r="E365" s="8"/>
-      <c r="F365" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="366" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>702</v>
+      </c>
+      <c r="C365" s="11" t="s">
+        <v>703</v>
+      </c>
+      <c r="D365" s="12"/>
+      <c r="E365" s="11"/>
+      <c r="F365" s="11"/>
+    </row>
+    <row r="366" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B366" s="8" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C366" s="8" t="s">
-        <v>706</v>
+        <v>673</v>
       </c>
       <c r="D366" s="9" t="s">
-        <v>707</v>
-      </c>
-      <c r="E366" s="18"/>
+        <v>674</v>
+      </c>
+      <c r="E366" s="8"/>
       <c r="F366" s="8" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="367" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B367" s="8" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="C367" s="8" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="D367" s="9" t="s">
-        <v>698</v>
-      </c>
-      <c r="E367" s="8"/>
+        <v>707</v>
+      </c>
+      <c r="E367" s="18"/>
       <c r="F367" s="8" t="s">
         <v>123</v>
       </c>
@@ -11980,13 +12063,13 @@
         <v>6</v>
       </c>
       <c r="B368" s="8" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C368" s="8" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="D368" s="9" t="s">
-        <v>680</v>
+        <v>698</v>
       </c>
       <c r="E368" s="8"/>
       <c r="F368" s="8" t="s">
@@ -11998,13 +12081,13 @@
         <v>6</v>
       </c>
       <c r="B369" s="8" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C369" s="8" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D369" s="9" t="s">
-        <v>714</v>
+        <v>680</v>
       </c>
       <c r="E369" s="8"/>
       <c r="F369" s="8" t="s">
@@ -12016,59 +12099,59 @@
         <v>6</v>
       </c>
       <c r="B370" s="8" t="s">
-        <v>715</v>
-      </c>
-      <c r="C370" s="7" t="s">
-        <v>716</v>
-      </c>
-      <c r="D370" s="12"/>
-      <c r="E370" s="11"/>
-      <c r="F370" s="11"/>
+        <v>712</v>
+      </c>
+      <c r="C370" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="D370" s="9" t="s">
+        <v>714</v>
+      </c>
+      <c r="E370" s="8"/>
+      <c r="F370" s="8" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="371" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B371" s="8" t="s">
-        <v>717</v>
-      </c>
-      <c r="C371" s="11" t="s">
-        <v>649</v>
+        <v>715</v>
+      </c>
+      <c r="C371" s="7" t="s">
+        <v>716</v>
       </c>
       <c r="D371" s="12"/>
       <c r="E371" s="11"/>
       <c r="F371" s="11"/>
     </row>
-    <row r="372" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B372" s="8" t="s">
-        <v>718</v>
-      </c>
-      <c r="C372" s="8" t="s">
-        <v>651</v>
-      </c>
-      <c r="D372" s="10">
-        <v>78.3</v>
-      </c>
-      <c r="E372" s="8"/>
-      <c r="F372" s="8" t="s">
-        <v>210</v>
-      </c>
+        <v>717</v>
+      </c>
+      <c r="C372" s="11" t="s">
+        <v>649</v>
+      </c>
+      <c r="D372" s="12"/>
+      <c r="E372" s="11"/>
+      <c r="F372" s="11"/>
     </row>
     <row r="373" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B373" s="8" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C373" s="8" t="s">
-        <v>720</v>
+        <v>651</v>
       </c>
       <c r="D373" s="10">
-        <v>78.099999999999994</v>
+        <v>78.3</v>
       </c>
       <c r="E373" s="8"/>
       <c r="F373" s="8" t="s">
@@ -12080,10 +12163,10 @@
         <v>6</v>
       </c>
       <c r="B374" s="8" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C374" s="8" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D374" s="10">
         <v>78.099999999999994</v>
@@ -12093,29 +12176,33 @@
         <v>210</v>
       </c>
     </row>
-    <row r="375" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B375" s="8" t="s">
-        <v>723</v>
-      </c>
-      <c r="C375" s="11" t="s">
-        <v>657</v>
-      </c>
-      <c r="D375" s="12"/>
-      <c r="E375" s="11"/>
-      <c r="F375" s="11"/>
+        <v>721</v>
+      </c>
+      <c r="C375" s="8" t="s">
+        <v>722</v>
+      </c>
+      <c r="D375" s="10">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E375" s="8"/>
+      <c r="F375" s="8" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="376" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B376" s="8" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C376" s="11" t="s">
-        <v>725</v>
+        <v>657</v>
       </c>
       <c r="D376" s="12"/>
       <c r="E376" s="11"/>
@@ -12126,67 +12213,63 @@
         <v>6</v>
       </c>
       <c r="B377" s="8" t="s">
-        <v>726</v>
-      </c>
-      <c r="C377" s="8" t="s">
-        <v>727</v>
-      </c>
-      <c r="D377" s="9" t="s">
-        <v>728</v>
-      </c>
-      <c r="E377" s="8"/>
-      <c r="F377" s="8" t="s">
-        <v>210</v>
-      </c>
+        <v>724</v>
+      </c>
+      <c r="C377" s="11" t="s">
+        <v>725</v>
+      </c>
+      <c r="D377" s="12"/>
+      <c r="E377" s="11"/>
+      <c r="F377" s="11"/>
     </row>
     <row r="378" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B378" s="8" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="C378" s="8" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="D378" s="9" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="E378" s="8"/>
       <c r="F378" s="8" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="379" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B379" s="8" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="C379" s="8" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="D379" s="9" t="s">
-        <v>682</v>
+        <v>731</v>
       </c>
       <c r="E379" s="8"/>
       <c r="F379" s="8" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="380" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B380" s="8" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C380" s="8" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D380" s="9" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="E380" s="8"/>
       <c r="F380" s="8" t="s">
@@ -12198,13 +12281,13 @@
         <v>6</v>
       </c>
       <c r="B381" s="8" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C381" s="8" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D381" s="9" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="E381" s="8"/>
       <c r="F381" s="8" t="s">
@@ -12216,13 +12299,13 @@
         <v>6</v>
       </c>
       <c r="B382" s="8" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C382" s="8" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D382" s="9" t="s">
-        <v>669</v>
+        <v>693</v>
       </c>
       <c r="E382" s="8"/>
       <c r="F382" s="8" t="s">
@@ -12234,45 +12317,45 @@
         <v>6</v>
       </c>
       <c r="B383" s="8" t="s">
-        <v>740</v>
-      </c>
-      <c r="C383" s="11" t="s">
-        <v>695</v>
-      </c>
-      <c r="D383" s="12"/>
-      <c r="E383" s="11"/>
-      <c r="F383" s="11"/>
+        <v>738</v>
+      </c>
+      <c r="C383" s="8" t="s">
+        <v>739</v>
+      </c>
+      <c r="D383" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="E383" s="8"/>
+      <c r="F383" s="8" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="384" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B384" s="8" t="s">
-        <v>741</v>
-      </c>
-      <c r="C384" s="8" t="s">
-        <v>697</v>
-      </c>
-      <c r="D384" s="9" t="s">
-        <v>698</v>
-      </c>
-      <c r="E384" s="8"/>
-      <c r="F384" s="8" t="s">
-        <v>210</v>
-      </c>
+        <v>740</v>
+      </c>
+      <c r="C384" s="11" t="s">
+        <v>695</v>
+      </c>
+      <c r="D384" s="12"/>
+      <c r="E384" s="11"/>
+      <c r="F384" s="11"/>
     </row>
     <row r="385" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B385" s="8" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C385" s="8" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="D385" s="9" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="E385" s="8"/>
       <c r="F385" s="8" t="s">
@@ -12284,65 +12367,65 @@
         <v>6</v>
       </c>
       <c r="B386" s="8" t="s">
-        <v>743</v>
-      </c>
-      <c r="C386" s="11" t="s">
-        <v>703</v>
-      </c>
-      <c r="D386" s="12"/>
-      <c r="E386" s="11"/>
-      <c r="F386" s="11"/>
-    </row>
-    <row r="387" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>742</v>
+      </c>
+      <c r="C386" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="D386" s="9" t="s">
+        <v>701</v>
+      </c>
+      <c r="E386" s="8"/>
+      <c r="F386" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B387" s="8" t="s">
-        <v>744</v>
-      </c>
-      <c r="C387" s="8" t="s">
-        <v>673</v>
-      </c>
-      <c r="D387" s="9" t="s">
-        <v>674</v>
-      </c>
-      <c r="E387" s="8"/>
-      <c r="F387" s="8" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="388" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>743</v>
+      </c>
+      <c r="C387" s="11" t="s">
+        <v>703</v>
+      </c>
+      <c r="D387" s="12"/>
+      <c r="E387" s="11"/>
+      <c r="F387" s="11"/>
+    </row>
+    <row r="388" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B388" s="8" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C388" s="8" t="s">
-        <v>746</v>
+        <v>673</v>
       </c>
       <c r="D388" s="9" t="s">
-        <v>707</v>
-      </c>
-      <c r="E388" s="18"/>
+        <v>674</v>
+      </c>
+      <c r="E388" s="8"/>
       <c r="F388" s="8" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="389" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B389" s="8" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C389" s="8" t="s">
-        <v>709</v>
+        <v>746</v>
       </c>
       <c r="D389" s="9" t="s">
-        <v>698</v>
-      </c>
-      <c r="E389" s="8"/>
+        <v>707</v>
+      </c>
+      <c r="E389" s="18"/>
       <c r="F389" s="8" t="s">
         <v>210</v>
       </c>
@@ -12352,13 +12435,13 @@
         <v>6</v>
       </c>
       <c r="B390" s="8" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C390" s="8" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="D390" s="9" t="s">
-        <v>680</v>
+        <v>698</v>
       </c>
       <c r="E390" s="8"/>
       <c r="F390" s="8" t="s">
@@ -12370,77 +12453,77 @@
         <v>6</v>
       </c>
       <c r="B391" s="8" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C391" s="8" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D391" s="9" t="s">
-        <v>714</v>
+        <v>680</v>
       </c>
       <c r="E391" s="8"/>
       <c r="F391" s="8" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="392" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B392" s="8" t="s">
-        <v>750</v>
-      </c>
-      <c r="C392" s="7" t="s">
-        <v>751</v>
-      </c>
-      <c r="D392" s="12"/>
-      <c r="E392" s="11"/>
-      <c r="F392" s="11"/>
-    </row>
-    <row r="393" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>749</v>
+      </c>
+      <c r="C392" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="D392" s="9" t="s">
+        <v>714</v>
+      </c>
+      <c r="E392" s="8"/>
+      <c r="F392" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B393" s="8" t="s">
-        <v>752</v>
-      </c>
-      <c r="C393" s="11" t="s">
-        <v>649</v>
+        <v>750</v>
+      </c>
+      <c r="C393" s="7" t="s">
+        <v>751</v>
       </c>
       <c r="D393" s="12"/>
       <c r="E393" s="11"/>
       <c r="F393" s="11"/>
     </row>
-    <row r="394" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B394" s="8" t="s">
-        <v>753</v>
-      </c>
-      <c r="C394" s="8" t="s">
-        <v>754</v>
-      </c>
-      <c r="D394" s="10">
-        <v>78.3</v>
-      </c>
-      <c r="E394" s="8"/>
-      <c r="F394" s="8" t="s">
-        <v>225</v>
-      </c>
+        <v>752</v>
+      </c>
+      <c r="C394" s="11" t="s">
+        <v>649</v>
+      </c>
+      <c r="D394" s="12"/>
+      <c r="E394" s="11"/>
+      <c r="F394" s="11"/>
     </row>
     <row r="395" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B395" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C395" s="8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="D395" s="10">
-        <v>78.099999999999994</v>
+        <v>78.3</v>
       </c>
       <c r="E395" s="8"/>
       <c r="F395" s="8" t="s">
@@ -12452,10 +12535,10 @@
         <v>6</v>
       </c>
       <c r="B396" s="8" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C396" s="8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D396" s="10">
         <v>78.099999999999994</v>
@@ -12465,64 +12548,64 @@
         <v>225</v>
       </c>
     </row>
-    <row r="397" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B397" s="8" t="s">
-        <v>759</v>
-      </c>
-      <c r="C397" s="11" t="s">
-        <v>657</v>
-      </c>
-      <c r="D397" s="12"/>
-      <c r="E397" s="11"/>
-      <c r="F397" s="11"/>
+        <v>757</v>
+      </c>
+      <c r="C397" s="8" t="s">
+        <v>758</v>
+      </c>
+      <c r="D397" s="10">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E397" s="8"/>
+      <c r="F397" s="8" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="398" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B398" s="8" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C398" s="11" t="s">
-        <v>725</v>
+        <v>657</v>
       </c>
       <c r="D398" s="12"/>
       <c r="E398" s="11"/>
       <c r="F398" s="11"/>
     </row>
-    <row r="399" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B399" s="8" t="s">
-        <v>761</v>
-      </c>
-      <c r="C399" s="8" t="s">
-        <v>762</v>
-      </c>
-      <c r="D399" s="9" t="s">
-        <v>763</v>
-      </c>
-      <c r="E399" s="8"/>
-      <c r="F399" s="8" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="400" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>760</v>
+      </c>
+      <c r="C399" s="11" t="s">
+        <v>725</v>
+      </c>
+      <c r="D399" s="12"/>
+      <c r="E399" s="11"/>
+      <c r="F399" s="11"/>
+    </row>
+    <row r="400" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B400" s="8" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="C400" s="8" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="D400" s="9" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="E400" s="8"/>
       <c r="F400" s="8" t="s">
@@ -12534,31 +12617,31 @@
         <v>6</v>
       </c>
       <c r="B401" s="8" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="C401" s="8" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="D401" s="9" t="s">
-        <v>663</v>
+        <v>766</v>
       </c>
       <c r="E401" s="8"/>
       <c r="F401" s="8" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="402" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B402" s="8" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C402" s="8" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="D402" s="9" t="s">
-        <v>682</v>
+        <v>663</v>
       </c>
       <c r="E402" s="8"/>
       <c r="F402" s="8" t="s">
@@ -12570,13 +12653,13 @@
         <v>6</v>
       </c>
       <c r="B403" s="8" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C403" s="8" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="D403" s="9" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="E403" s="8"/>
       <c r="F403" s="8" t="s">
@@ -12588,13 +12671,13 @@
         <v>6</v>
       </c>
       <c r="B404" s="8" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C404" s="8" t="s">
-        <v>739</v>
+        <v>772</v>
       </c>
       <c r="D404" s="9" t="s">
-        <v>669</v>
+        <v>693</v>
       </c>
       <c r="E404" s="8"/>
       <c r="F404" s="8" t="s">
@@ -12606,45 +12689,45 @@
         <v>6</v>
       </c>
       <c r="B405" s="8" t="s">
-        <v>774</v>
-      </c>
-      <c r="C405" s="11" t="s">
-        <v>695</v>
-      </c>
-      <c r="D405" s="12"/>
-      <c r="E405" s="11"/>
-      <c r="F405" s="11"/>
+        <v>773</v>
+      </c>
+      <c r="C405" s="8" t="s">
+        <v>739</v>
+      </c>
+      <c r="D405" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="E405" s="8"/>
+      <c r="F405" s="8" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="406" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B406" s="8" t="s">
-        <v>775</v>
-      </c>
-      <c r="C406" s="8" t="s">
-        <v>697</v>
-      </c>
-      <c r="D406" s="9" t="s">
-        <v>698</v>
-      </c>
-      <c r="E406" s="8"/>
-      <c r="F406" s="8" t="s">
-        <v>225</v>
-      </c>
+        <v>774</v>
+      </c>
+      <c r="C406" s="11" t="s">
+        <v>695</v>
+      </c>
+      <c r="D406" s="12"/>
+      <c r="E406" s="11"/>
+      <c r="F406" s="11"/>
     </row>
     <row r="407" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B407" s="8" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C407" s="8" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="D407" s="9" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="E407" s="8"/>
       <c r="F407" s="8" t="s">
@@ -12656,65 +12739,65 @@
         <v>6</v>
       </c>
       <c r="B408" s="8" t="s">
-        <v>777</v>
-      </c>
-      <c r="C408" s="11" t="s">
-        <v>703</v>
-      </c>
-      <c r="D408" s="12"/>
-      <c r="E408" s="11"/>
-      <c r="F408" s="11"/>
-    </row>
-    <row r="409" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>776</v>
+      </c>
+      <c r="C408" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="D408" s="9" t="s">
+        <v>701</v>
+      </c>
+      <c r="E408" s="8"/>
+      <c r="F408" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B409" s="8" t="s">
-        <v>778</v>
-      </c>
-      <c r="C409" s="8" t="s">
-        <v>673</v>
-      </c>
-      <c r="D409" s="9" t="s">
-        <v>674</v>
-      </c>
-      <c r="E409" s="8"/>
-      <c r="F409" s="8" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="410" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>777</v>
+      </c>
+      <c r="C409" s="11" t="s">
+        <v>703</v>
+      </c>
+      <c r="D409" s="12"/>
+      <c r="E409" s="11"/>
+      <c r="F409" s="11"/>
+    </row>
+    <row r="410" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B410" s="8" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C410" s="8" t="s">
-        <v>746</v>
+        <v>673</v>
       </c>
       <c r="D410" s="9" t="s">
-        <v>707</v>
-      </c>
-      <c r="E410" s="18"/>
+        <v>674</v>
+      </c>
+      <c r="E410" s="8"/>
       <c r="F410" s="8" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="411" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B411" s="8" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C411" s="8" t="s">
-        <v>709</v>
+        <v>746</v>
       </c>
       <c r="D411" s="9" t="s">
-        <v>698</v>
-      </c>
-      <c r="E411" s="8"/>
+        <v>707</v>
+      </c>
+      <c r="E411" s="18"/>
       <c r="F411" s="8" t="s">
         <v>225</v>
       </c>
@@ -12724,13 +12807,13 @@
         <v>6</v>
       </c>
       <c r="B412" s="8" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C412" s="8" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="D412" s="9" t="s">
-        <v>680</v>
+        <v>698</v>
       </c>
       <c r="E412" s="8"/>
       <c r="F412" s="8" t="s">
@@ -12742,13 +12825,13 @@
         <v>6</v>
       </c>
       <c r="B413" s="8" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C413" s="8" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D413" s="9" t="s">
-        <v>714</v>
+        <v>680</v>
       </c>
       <c r="E413" s="8"/>
       <c r="F413" s="8" t="s">
@@ -12760,61 +12843,61 @@
         <v>6</v>
       </c>
       <c r="B414" s="8" t="s">
-        <v>783</v>
-      </c>
-      <c r="C414" s="7" t="s">
-        <v>784</v>
-      </c>
-      <c r="D414" s="12"/>
-      <c r="E414" s="11"/>
-      <c r="F414" s="11"/>
+        <v>782</v>
+      </c>
+      <c r="C414" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="D414" s="9" t="s">
+        <v>714</v>
+      </c>
+      <c r="E414" s="8"/>
+      <c r="F414" s="8" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="415" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B415" s="8" t="s">
-        <v>785</v>
-      </c>
-      <c r="C415" s="11" t="s">
-        <v>649</v>
+        <v>783</v>
+      </c>
+      <c r="C415" s="7" t="s">
+        <v>784</v>
       </c>
       <c r="D415" s="12"/>
       <c r="E415" s="11"/>
       <c r="F415" s="11"/>
     </row>
-    <row r="416" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B416" s="8" t="s">
-        <v>786</v>
-      </c>
-      <c r="C416" s="8" t="s">
-        <v>754</v>
-      </c>
-      <c r="D416" s="10">
-        <v>78.3</v>
-      </c>
-      <c r="E416" s="13"/>
-      <c r="F416" s="8" t="s">
-        <v>240</v>
-      </c>
+        <v>785</v>
+      </c>
+      <c r="C416" s="11" t="s">
+        <v>649</v>
+      </c>
+      <c r="D416" s="12"/>
+      <c r="E416" s="11"/>
+      <c r="F416" s="11"/>
     </row>
     <row r="417" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B417" s="8" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C417" s="8" t="s">
-        <v>788</v>
+        <v>754</v>
       </c>
       <c r="D417" s="10">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E417" s="8"/>
+        <v>78.3</v>
+      </c>
+      <c r="E417" s="13"/>
       <c r="F417" s="8" t="s">
         <v>240</v>
       </c>
@@ -12824,10 +12907,10 @@
         <v>6</v>
       </c>
       <c r="B418" s="8" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C418" s="8" t="s">
-        <v>758</v>
+        <v>788</v>
       </c>
       <c r="D418" s="10">
         <v>78.099999999999994</v>
@@ -12842,24 +12925,28 @@
         <v>6</v>
       </c>
       <c r="B419" s="8" t="s">
-        <v>790</v>
-      </c>
-      <c r="C419" s="11" t="s">
-        <v>657</v>
-      </c>
-      <c r="D419" s="12"/>
-      <c r="E419" s="11"/>
-      <c r="F419" s="11"/>
+        <v>789</v>
+      </c>
+      <c r="C419" s="8" t="s">
+        <v>758</v>
+      </c>
+      <c r="D419" s="10">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E419" s="8"/>
+      <c r="F419" s="8" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="420" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B420" s="8" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C420" s="11" t="s">
-        <v>725</v>
+        <v>657</v>
       </c>
       <c r="D420" s="12"/>
       <c r="E420" s="11"/>
@@ -12870,31 +12957,27 @@
         <v>6</v>
       </c>
       <c r="B421" s="8" t="s">
-        <v>792</v>
-      </c>
-      <c r="C421" s="8" t="s">
-        <v>727</v>
-      </c>
-      <c r="D421" s="9" t="s">
-        <v>728</v>
-      </c>
-      <c r="E421" s="8"/>
-      <c r="F421" s="8" t="s">
-        <v>240</v>
-      </c>
+        <v>791</v>
+      </c>
+      <c r="C421" s="11" t="s">
+        <v>725</v>
+      </c>
+      <c r="D421" s="12"/>
+      <c r="E421" s="11"/>
+      <c r="F421" s="11"/>
     </row>
     <row r="422" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B422" s="8" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C422" s="8" t="s">
-        <v>794</v>
+        <v>727</v>
       </c>
       <c r="D422" s="9" t="s">
-        <v>660</v>
+        <v>728</v>
       </c>
       <c r="E422" s="8"/>
       <c r="F422" s="8" t="s">
@@ -12906,81 +12989,81 @@
         <v>6</v>
       </c>
       <c r="B423" s="8" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C423" s="8" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D423" s="9" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E423" s="8"/>
       <c r="F423" s="8" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="424" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B424" s="8" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C424" s="8" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D424" s="9" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="E424" s="8"/>
       <c r="F424" s="8" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="425" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B425" s="8" t="s">
-        <v>799</v>
-      </c>
-      <c r="C425" s="11" t="s">
-        <v>800</v>
-      </c>
-      <c r="D425" s="12"/>
-      <c r="E425" s="11"/>
-      <c r="F425" s="11"/>
+        <v>797</v>
+      </c>
+      <c r="C425" s="8" t="s">
+        <v>798</v>
+      </c>
+      <c r="D425" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="E425" s="8"/>
+      <c r="F425" s="8" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="426" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B426" s="8" t="s">
-        <v>801</v>
-      </c>
-      <c r="C426" s="8" t="s">
-        <v>802</v>
-      </c>
-      <c r="D426" s="9" t="s">
-        <v>803</v>
-      </c>
-      <c r="E426" s="8"/>
-      <c r="F426" s="8" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="427" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>799</v>
+      </c>
+      <c r="C426" s="11" t="s">
+        <v>800</v>
+      </c>
+      <c r="D426" s="12"/>
+      <c r="E426" s="11"/>
+      <c r="F426" s="11"/>
+    </row>
+    <row r="427" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B427" s="8" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="C427" s="8" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="D427" s="9" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="E427" s="8"/>
       <c r="F427" s="8" t="s">
@@ -12992,10 +13075,10 @@
         <v>6</v>
       </c>
       <c r="B428" s="8" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="C428" s="8" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="D428" s="9" t="s">
         <v>806</v>
@@ -13005,68 +13088,68 @@
         <v>240</v>
       </c>
     </row>
-    <row r="429" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B429" s="8" t="s">
-        <v>809</v>
-      </c>
-      <c r="C429" s="11" t="s">
-        <v>703</v>
-      </c>
-      <c r="D429" s="12"/>
-      <c r="E429" s="11"/>
-      <c r="F429" s="11"/>
+        <v>807</v>
+      </c>
+      <c r="C429" s="8" t="s">
+        <v>808</v>
+      </c>
+      <c r="D429" s="9" t="s">
+        <v>806</v>
+      </c>
+      <c r="E429" s="8"/>
+      <c r="F429" s="8" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="430" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B430" s="8" t="s">
-        <v>810</v>
-      </c>
-      <c r="C430" s="8" t="s">
-        <v>673</v>
-      </c>
-      <c r="D430" s="9" t="s">
-        <v>674</v>
-      </c>
-      <c r="E430" s="8"/>
-      <c r="F430" s="8" t="s">
-        <v>240</v>
-      </c>
+        <v>809</v>
+      </c>
+      <c r="C430" s="11" t="s">
+        <v>703</v>
+      </c>
+      <c r="D430" s="12"/>
+      <c r="E430" s="11"/>
+      <c r="F430" s="11"/>
     </row>
     <row r="431" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B431" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C431" s="8" t="s">
-        <v>812</v>
+        <v>673</v>
       </c>
       <c r="D431" s="9" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="E431" s="8"/>
       <c r="F431" s="8" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="432" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B432" s="8" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C432" s="8" t="s">
-        <v>709</v>
+        <v>812</v>
       </c>
       <c r="D432" s="9" t="s">
-        <v>698</v>
+        <v>677</v>
       </c>
       <c r="E432" s="8"/>
       <c r="F432" s="8" t="s">
@@ -13078,10 +13161,10 @@
         <v>6</v>
       </c>
       <c r="B433" s="8" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C433" s="8" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="D433" s="9" t="s">
         <v>698</v>
@@ -13091,18 +13174,18 @@
         <v>240</v>
       </c>
     </row>
-    <row r="434" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B434" s="8" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C434" s="8" t="s">
-        <v>770</v>
+        <v>711</v>
       </c>
       <c r="D434" s="9" t="s">
-        <v>682</v>
+        <v>698</v>
       </c>
       <c r="E434" s="8"/>
       <c r="F434" s="8" t="s">
@@ -13114,45 +13197,45 @@
         <v>6</v>
       </c>
       <c r="B435" s="8" t="s">
-        <v>816</v>
-      </c>
-      <c r="C435" s="11" t="s">
-        <v>684</v>
-      </c>
-      <c r="D435" s="12"/>
-      <c r="E435" s="11"/>
-      <c r="F435" s="11"/>
-    </row>
-    <row r="436" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+        <v>815</v>
+      </c>
+      <c r="C435" s="8" t="s">
+        <v>770</v>
+      </c>
+      <c r="D435" s="9" t="s">
+        <v>682</v>
+      </c>
+      <c r="E435" s="8"/>
+      <c r="F435" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B436" s="8" t="s">
-        <v>817</v>
-      </c>
-      <c r="C436" s="8" t="s">
-        <v>686</v>
-      </c>
-      <c r="D436" s="9" t="s">
-        <v>687</v>
-      </c>
-      <c r="E436" s="8"/>
-      <c r="F436" s="8" t="s">
-        <v>240</v>
-      </c>
+        <v>816</v>
+      </c>
+      <c r="C436" s="11" t="s">
+        <v>684</v>
+      </c>
+      <c r="D436" s="12"/>
+      <c r="E436" s="11"/>
+      <c r="F436" s="11"/>
     </row>
     <row r="437" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B437" s="8" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C437" s="8" t="s">
-        <v>819</v>
+        <v>686</v>
       </c>
       <c r="D437" s="9" t="s">
-        <v>820</v>
+        <v>687</v>
       </c>
       <c r="E437" s="8"/>
       <c r="F437" s="8" t="s">
@@ -13164,13 +13247,13 @@
         <v>6</v>
       </c>
       <c r="B438" s="8" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="C438" s="8" t="s">
-        <v>772</v>
+        <v>819</v>
       </c>
       <c r="D438" s="9" t="s">
-        <v>693</v>
+        <v>820</v>
       </c>
       <c r="E438" s="8"/>
       <c r="F438" s="8" t="s">
@@ -13182,45 +13265,45 @@
         <v>6</v>
       </c>
       <c r="B439" s="8" t="s">
-        <v>822</v>
-      </c>
-      <c r="C439" s="11" t="s">
-        <v>695</v>
-      </c>
-      <c r="D439" s="12"/>
-      <c r="E439" s="11"/>
-      <c r="F439" s="11"/>
+        <v>821</v>
+      </c>
+      <c r="C439" s="8" t="s">
+        <v>772</v>
+      </c>
+      <c r="D439" s="9" t="s">
+        <v>693</v>
+      </c>
+      <c r="E439" s="8"/>
+      <c r="F439" s="8" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="440" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B440" s="8" t="s">
-        <v>823</v>
-      </c>
-      <c r="C440" s="8" t="s">
-        <v>697</v>
-      </c>
-      <c r="D440" s="9" t="s">
-        <v>698</v>
-      </c>
-      <c r="E440" s="8"/>
-      <c r="F440" s="8" t="s">
-        <v>240</v>
-      </c>
+        <v>822</v>
+      </c>
+      <c r="C440" s="11" t="s">
+        <v>695</v>
+      </c>
+      <c r="D440" s="12"/>
+      <c r="E440" s="11"/>
+      <c r="F440" s="11"/>
     </row>
     <row r="441" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B441" s="8" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C441" s="8" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="D441" s="9" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="E441" s="8"/>
       <c r="F441" s="8" t="s">
@@ -13232,72 +13315,74 @@
         <v>6</v>
       </c>
       <c r="B442" s="8" t="s">
-        <v>825</v>
-      </c>
-      <c r="C442" s="11" t="s">
-        <v>826</v>
-      </c>
-      <c r="D442" s="12"/>
-      <c r="E442" s="11"/>
-      <c r="F442" s="11"/>
+        <v>824</v>
+      </c>
+      <c r="C442" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="D442" s="9" t="s">
+        <v>701</v>
+      </c>
+      <c r="E442" s="8"/>
+      <c r="F442" s="8" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="443" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B443" s="8" t="s">
-        <v>827</v>
-      </c>
-      <c r="C443" s="8" t="s">
-        <v>713</v>
-      </c>
-      <c r="D443" s="9" t="s">
-        <v>714</v>
-      </c>
-      <c r="E443" s="8"/>
-      <c r="F443" s="8" t="s">
-        <v>240</v>
-      </c>
+        <v>825</v>
+      </c>
+      <c r="C443" s="11" t="s">
+        <v>826</v>
+      </c>
+      <c r="D443" s="12"/>
+      <c r="E443" s="11"/>
+      <c r="F443" s="11"/>
     </row>
     <row r="444" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B444" s="8" t="s">
-        <v>828</v>
-      </c>
-      <c r="C444" s="7" t="s">
-        <v>829</v>
-      </c>
-      <c r="D444" s="12"/>
-      <c r="E444" s="11"/>
-      <c r="F444" s="11"/>
+        <v>827</v>
+      </c>
+      <c r="C444" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="D444" s="9" t="s">
+        <v>714</v>
+      </c>
+      <c r="E444" s="8"/>
+      <c r="F444" s="8" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="445" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B445" s="8" t="s">
-        <v>830</v>
-      </c>
-      <c r="C445" s="8" t="s">
-        <v>831</v>
-      </c>
-      <c r="D445" s="10"/>
-      <c r="E445" s="8"/>
-      <c r="F445" s="8" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="446" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>828</v>
+      </c>
+      <c r="C445" s="7" t="s">
+        <v>829</v>
+      </c>
+      <c r="D445" s="12"/>
+      <c r="E445" s="11"/>
+      <c r="F445" s="11"/>
+    </row>
+    <row r="446" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B446" s="8" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C446" s="8" t="s">
-        <v>649</v>
+        <v>831</v>
       </c>
       <c r="D446" s="10"/>
       <c r="E446" s="8"/>
@@ -13305,15 +13390,15 @@
         <v>240</v>
       </c>
     </row>
-    <row r="447" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B447" s="8" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C447" s="8" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="D447" s="10"/>
       <c r="E447" s="8"/>
@@ -13326,40 +13411,40 @@
         <v>6</v>
       </c>
       <c r="B448" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="C448" s="7" t="s">
-        <v>835</v>
-      </c>
-      <c r="D448" s="12"/>
-      <c r="E448" s="7"/>
-      <c r="F448" s="11"/>
+        <v>833</v>
+      </c>
+      <c r="C448" s="8" t="s">
+        <v>657</v>
+      </c>
+      <c r="D448" s="10"/>
+      <c r="E448" s="8"/>
+      <c r="F448" s="8" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="449" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B449" s="8" t="s">
-        <v>836</v>
-      </c>
-      <c r="C449" s="8" t="s">
-        <v>837</v>
-      </c>
-      <c r="D449" s="10"/>
-      <c r="E449" s="8"/>
-      <c r="F449" s="8" t="s">
-        <v>240</v>
-      </c>
+        <v>834</v>
+      </c>
+      <c r="C449" s="7" t="s">
+        <v>835</v>
+      </c>
+      <c r="D449" s="12"/>
+      <c r="E449" s="7"/>
+      <c r="F449" s="11"/>
     </row>
     <row r="450" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B450" s="8" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C450" s="8" t="s">
-        <v>649</v>
+        <v>837</v>
       </c>
       <c r="D450" s="10"/>
       <c r="E450" s="8"/>
@@ -13372,59 +13457,57 @@
         <v>6</v>
       </c>
       <c r="B451" s="8" t="s">
-        <v>839</v>
-      </c>
-      <c r="C451" s="7" t="s">
-        <v>840</v>
-      </c>
-      <c r="D451" s="12"/>
-      <c r="E451" s="11"/>
-      <c r="F451" s="11"/>
+        <v>838</v>
+      </c>
+      <c r="C451" s="8" t="s">
+        <v>649</v>
+      </c>
+      <c r="D451" s="10"/>
+      <c r="E451" s="8"/>
+      <c r="F451" s="8" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="452" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B452" s="8" t="s">
-        <v>841</v>
-      </c>
-      <c r="C452" s="11" t="s">
-        <v>649</v>
+        <v>839</v>
+      </c>
+      <c r="C452" s="7" t="s">
+        <v>840</v>
       </c>
       <c r="D452" s="12"/>
       <c r="E452" s="11"/>
       <c r="F452" s="11"/>
     </row>
-    <row r="453" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B453" s="8" t="s">
-        <v>842</v>
-      </c>
-      <c r="C453" s="8" t="s">
-        <v>754</v>
-      </c>
-      <c r="D453" s="10">
-        <v>78.3</v>
-      </c>
-      <c r="E453" s="8"/>
-      <c r="F453" s="8" t="s">
-        <v>51</v>
-      </c>
+        <v>841</v>
+      </c>
+      <c r="C453" s="11" t="s">
+        <v>649</v>
+      </c>
+      <c r="D453" s="12"/>
+      <c r="E453" s="11"/>
+      <c r="F453" s="11"/>
     </row>
     <row r="454" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B454" s="8" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C454" s="8" t="s">
-        <v>788</v>
+        <v>754</v>
       </c>
       <c r="D454" s="10">
-        <v>78.099999999999994</v>
+        <v>78.3</v>
       </c>
       <c r="E454" s="8"/>
       <c r="F454" s="8" t="s">
@@ -13436,10 +13519,10 @@
         <v>6</v>
       </c>
       <c r="B455" s="8" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C455" s="8" t="s">
-        <v>758</v>
+        <v>788</v>
       </c>
       <c r="D455" s="10">
         <v>78.099999999999994</v>
@@ -13449,29 +13532,33 @@
         <v>51</v>
       </c>
     </row>
-    <row r="456" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B456" s="8" t="s">
-        <v>845</v>
-      </c>
-      <c r="C456" s="11" t="s">
-        <v>657</v>
-      </c>
-      <c r="D456" s="12"/>
-      <c r="E456" s="11"/>
-      <c r="F456" s="11"/>
+        <v>844</v>
+      </c>
+      <c r="C456" s="8" t="s">
+        <v>758</v>
+      </c>
+      <c r="D456" s="10">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E456" s="8"/>
+      <c r="F456" s="8" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="457" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B457" s="8" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C457" s="11" t="s">
-        <v>725</v>
+        <v>657</v>
       </c>
       <c r="D457" s="12"/>
       <c r="E457" s="11"/>
@@ -13482,31 +13569,27 @@
         <v>6</v>
       </c>
       <c r="B458" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="C458" s="8" t="s">
-        <v>848</v>
-      </c>
-      <c r="D458" s="9" t="s">
-        <v>660</v>
-      </c>
-      <c r="E458" s="8"/>
-      <c r="F458" s="8" t="s">
-        <v>51</v>
-      </c>
+        <v>846</v>
+      </c>
+      <c r="C458" s="11" t="s">
+        <v>725</v>
+      </c>
+      <c r="D458" s="12"/>
+      <c r="E458" s="11"/>
+      <c r="F458" s="11"/>
     </row>
     <row r="459" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B459" s="8" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C459" s="8" t="s">
-        <v>796</v>
+        <v>848</v>
       </c>
       <c r="D459" s="9" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E459" s="8"/>
       <c r="F459" s="8" t="s">
@@ -13518,31 +13601,31 @@
         <v>6</v>
       </c>
       <c r="B460" s="8" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C460" s="8" t="s">
-        <v>851</v>
+        <v>796</v>
       </c>
       <c r="D460" s="9" t="s">
-        <v>852</v>
+        <v>663</v>
       </c>
       <c r="E460" s="8"/>
       <c r="F460" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="461" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B461" s="8" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C461" s="8" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="D461" s="9" t="s">
-        <v>693</v>
+        <v>852</v>
       </c>
       <c r="E461" s="8"/>
       <c r="F461" s="8" t="s">
@@ -13554,47 +13637,47 @@
         <v>6</v>
       </c>
       <c r="B462" s="8" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C462" s="8" t="s">
-        <v>856</v>
-      </c>
-      <c r="D462" s="10"/>
+        <v>854</v>
+      </c>
+      <c r="D462" s="9" t="s">
+        <v>693</v>
+      </c>
       <c r="E462" s="8"/>
       <c r="F462" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="463" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B463" s="8" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C463" s="8" t="s">
-        <v>858</v>
-      </c>
-      <c r="D463" s="9" t="s">
-        <v>669</v>
-      </c>
+        <v>856</v>
+      </c>
+      <c r="D463" s="10"/>
       <c r="E463" s="8"/>
       <c r="F463" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="464" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B464" s="8" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C464" s="8" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D464" s="9" t="s">
-        <v>806</v>
+        <v>669</v>
       </c>
       <c r="E464" s="8"/>
       <c r="F464" s="8" t="s">
@@ -13606,152 +13689,170 @@
         <v>6</v>
       </c>
       <c r="B465" s="8" t="s">
-        <v>861</v>
-      </c>
-      <c r="C465" s="11" t="s">
-        <v>695</v>
-      </c>
-      <c r="D465" s="12"/>
-      <c r="E465" s="11"/>
-      <c r="F465" s="11"/>
+        <v>859</v>
+      </c>
+      <c r="C465" s="8" t="s">
+        <v>860</v>
+      </c>
+      <c r="D465" s="9" t="s">
+        <v>806</v>
+      </c>
+      <c r="E465" s="8"/>
+      <c r="F465" s="8" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="466" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B466" s="8" t="s">
-        <v>862</v>
-      </c>
-      <c r="C466" s="8" t="s">
-        <v>697</v>
-      </c>
-      <c r="D466" s="9" t="s">
-        <v>698</v>
-      </c>
-      <c r="E466" s="8"/>
-      <c r="F466" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="467" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>861</v>
+      </c>
+      <c r="C466" s="11" t="s">
+        <v>695</v>
+      </c>
+      <c r="D466" s="12"/>
+      <c r="E466" s="11"/>
+      <c r="F466" s="11"/>
+    </row>
+    <row r="467" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B467" s="8" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C467" s="8" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="D467" s="9" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="E467" s="8"/>
       <c r="F467" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="468" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B468" s="8" t="s">
-        <v>864</v>
-      </c>
-      <c r="C468" s="11" t="s">
-        <v>703</v>
-      </c>
-      <c r="D468" s="12"/>
-      <c r="E468" s="11"/>
-      <c r="F468" s="11"/>
-    </row>
-    <row r="469" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>863</v>
+      </c>
+      <c r="C468" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="D468" s="9" t="s">
+        <v>701</v>
+      </c>
+      <c r="E468" s="8"/>
+      <c r="F468" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B469" s="8" t="s">
-        <v>865</v>
-      </c>
-      <c r="C469" s="8" t="s">
-        <v>673</v>
-      </c>
-      <c r="D469" s="9" t="s">
-        <v>674</v>
-      </c>
-      <c r="E469" s="8"/>
-      <c r="F469" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="470" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>864</v>
+      </c>
+      <c r="C469" s="11" t="s">
+        <v>703</v>
+      </c>
+      <c r="D469" s="12"/>
+      <c r="E469" s="11"/>
+      <c r="F469" s="11"/>
+    </row>
+    <row r="470" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B470" s="8" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C470" s="8" t="s">
-        <v>746</v>
+        <v>673</v>
       </c>
       <c r="D470" s="9" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="E470" s="8"/>
       <c r="F470" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="471" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B471" s="8" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C471" s="8" t="s">
-        <v>709</v>
+        <v>746</v>
       </c>
       <c r="D471" s="9" t="s">
-        <v>698</v>
+        <v>677</v>
       </c>
       <c r="E471" s="8"/>
       <c r="F471" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="472" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B472" s="8" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C472" s="8" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="D472" s="9" t="s">
-        <v>680</v>
+        <v>698</v>
       </c>
       <c r="E472" s="8"/>
       <c r="F472" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="473" spans="1:6" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B473" s="8" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C473" s="8" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D473" s="9" t="s">
-        <v>714</v>
+        <v>680</v>
       </c>
       <c r="E473" s="8"/>
       <c r="F473" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A474" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B474" s="8" t="s">
+        <v>869</v>
+      </c>
+      <c r="C474" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="D474" s="9" t="s">
+        <v>714</v>
+      </c>
+      <c r="E474" s="8"/>
+      <c r="F474" s="8" t="s">
         <v>51</v>
       </c>
     </row>

--- a/conformancelib/testdata/PIV-I-GSA_MSO_Cards.xlsx
+++ b/conformancelib/testdata/PIV-I-GSA_MSO_Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\bf7450\git\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0A6BD3-0D01-4B08-B907-C575FB1C347F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F430BCB-6029-4378-94B5-FACEE0ED1A35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="23040" windowHeight="12360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="23040" windowHeight="12360" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps Overview" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2982" uniqueCount="1272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2983" uniqueCount="1273">
   <si>
     <t>Document</t>
   </si>
@@ -3843,6 +3843,9 @@
   </si>
   <si>
     <t>6</t>
+  </si>
+  <si>
+    <t>CARD_HOLDER_UNIQUE_IDENTIFIER_OID:2.16.840.1.101.3.6.1,CARDHOLDER_FINGERPRINTS_OID:2.16.840.1.101.3.6.2,CARDHOLDER_FACIAL_IMAGE_OID:2.16.840.1.101.3.6.2,CARDHOLDER_IRIS_IMAGES_OID:2.16.840</t>
   </si>
 </sst>
 </file>
@@ -14057,7 +14060,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:IU56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -42411,7 +42414,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:IV30"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -42537,7 +42542,9 @@
       <c r="D6" s="13" t="s">
         <v>1124</v>
       </c>
-      <c r="E6" s="13"/>
+      <c r="E6" s="13" t="s">
+        <v>1272</v>
+      </c>
       <c r="F6" s="13" t="s">
         <v>879</v>
       </c>
